--- a/vignettes/results/BMF_computation_PCB_ng_glw/1.BMF_species_all_PCB_ng_glw.xlsx
+++ b/vignettes/results/BMF_computation_PCB_ng_glw/1.BMF_species_all_PCB_ng_glw.xlsx
@@ -442,12 +442,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="F2">
-        <v>668.536073299042</v>
+        <v>3479.114270247969</v>
       </c>
       <c r="G2">
-        <v>800.4532280941636</v>
+        <v>4388.472442665436</v>
       </c>
       <c r="H2">
-        <v>835.3764778072998</v>
+        <v>4996.155037808837</v>
       </c>
       <c r="I2">
         <v>772.5992435017812</v>
@@ -474,13 +474,13 @@
         <v>1190.784036563229</v>
       </c>
       <c r="L2">
-        <v>0.9248515657631435</v>
+        <v>0.1546387647410998</v>
       </c>
       <c r="M2">
-        <v>1.210549702733348</v>
+        <v>0.2208031222665721</v>
       </c>
       <c r="N2">
-        <v>1.781181426287196</v>
+        <v>0.3422664345193691</v>
       </c>
     </row>
     <row r="3">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="F3">
-        <v>119.6923422406473</v>
+        <v>341.4422671712341</v>
       </c>
       <c r="G3">
-        <v>134.0599455040872</v>
+        <v>507.2171882869218</v>
       </c>
       <c r="H3">
-        <v>154.5880322817653</v>
+        <v>578.0432477221427</v>
       </c>
       <c r="I3">
         <v>124.1490551585352</v>
@@ -528,13 +528,13 @@
         <v>208.6931016505882</v>
       </c>
       <c r="L3">
-        <v>0.8030961603305139</v>
+        <v>0.2147746827728916</v>
       </c>
       <c r="M3">
-        <v>1.248111859365893</v>
+        <v>0.3298819750464493</v>
       </c>
       <c r="N3">
-        <v>1.743579394837145</v>
+        <v>0.6112105082348466</v>
       </c>
     </row>
     <row r="4">
@@ -550,12 +550,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="F4">
-        <v>722.5581648708477</v>
+        <v>3197.113093328398</v>
       </c>
       <c r="G4">
-        <v>905.9945504087194</v>
+        <v>4220.295954981889</v>
       </c>
       <c r="H4">
-        <v>950.6561589779649</v>
+        <v>4760.469349871833</v>
       </c>
       <c r="I4">
         <v>677.5498310319136</v>
@@ -582,13 +582,13 @@
         <v>1005.336428291718</v>
       </c>
       <c r="L4">
-        <v>0.7127180785956686</v>
+        <v>0.1423283674854782</v>
       </c>
       <c r="M4">
-        <v>0.9115004870042088</v>
+        <v>0.1956769105128436</v>
       </c>
       <c r="N4">
-        <v>1.391357093683129</v>
+        <v>0.3144513187192571</v>
       </c>
     </row>
     <row r="5">
@@ -604,12 +604,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="F5">
-        <v>467.0632635912841</v>
+        <v>2108.938453900666</v>
       </c>
       <c r="G5">
-        <v>584.0397261849863</v>
+        <v>2892.322382581902</v>
       </c>
       <c r="H5">
-        <v>597.8781737191962</v>
+        <v>3260.446401503584</v>
       </c>
       <c r="I5">
         <v>730.4094819018429</v>
@@ -636,13 +636,13 @@
         <v>1117.260656539696</v>
       </c>
       <c r="L5">
-        <v>1.221669420307175</v>
+        <v>0.2240213124083279</v>
       </c>
       <c r="M5">
-        <v>1.641391414172532</v>
+        <v>0.331442234056897</v>
       </c>
       <c r="N5">
-        <v>2.392097053296369</v>
+        <v>0.5297739507159275</v>
       </c>
     </row>
     <row r="6">
@@ -658,12 +658,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="F6">
-        <v>147.6312080691964</v>
+        <v>453.4260550164893</v>
       </c>
       <c r="G6">
-        <v>179.0190735694823</v>
+        <v>759.2723591275329</v>
       </c>
       <c r="H6">
-        <v>206.1675719574131</v>
+        <v>842.1917478281185</v>
       </c>
       <c r="I6">
         <v>202.8582750800992</v>
@@ -690,13 +690,13 @@
         <v>287.6133459859888</v>
       </c>
       <c r="L6">
-        <v>0.9839485092350145</v>
+        <v>0.2408694642321527</v>
       </c>
       <c r="M6">
-        <v>1.428688545995424</v>
+        <v>0.3368521148554965</v>
       </c>
       <c r="N6">
-        <v>1.948187986453252</v>
+        <v>0.6343114666746034</v>
       </c>
     </row>
     <row r="7">
@@ -712,12 +712,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="F7">
-        <v>207.8590288710201</v>
+        <v>724.8992576904103</v>
       </c>
       <c r="G7">
-        <v>277.9291553133515</v>
+        <v>1193.92389797033</v>
       </c>
       <c r="H7">
-        <v>290.1397218177643</v>
+        <v>1348.039718198168</v>
       </c>
       <c r="I7">
         <v>164.3218993535436</v>
@@ -744,13 +744,13 @@
         <v>233.7952059214437</v>
       </c>
       <c r="L7">
-        <v>0.566354369970595</v>
+        <v>0.1218969271715387</v>
       </c>
       <c r="M7">
-        <v>0.7223053443397551</v>
+        <v>0.1681428058957041</v>
       </c>
       <c r="N7">
-        <v>1.124777726477869</v>
+        <v>0.3225209619697152</v>
       </c>
     </row>
     <row r="8">
@@ -766,12 +766,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="F8">
-        <v>947.6581012701822</v>
+        <v>3237.161708131974</v>
       </c>
       <c r="G8">
-        <v>1219.073569482289</v>
+        <v>4867.972327731208</v>
       </c>
       <c r="H8">
-        <v>1329.566008048187</v>
+        <v>5704.902135026216</v>
       </c>
       <c r="I8">
         <v>1158.085593833882</v>
@@ -798,13 +798,13 @@
         <v>1796.050300226435</v>
       </c>
       <c r="L8">
-        <v>0.8710252720238847</v>
+        <v>0.2029983278282056</v>
       </c>
       <c r="M8">
-        <v>1.209086562209549</v>
+        <v>0.3027883833293745</v>
       </c>
       <c r="N8">
-        <v>1.895251354701785</v>
+        <v>0.5548225458476888</v>
       </c>
     </row>
     <row r="9">
@@ -820,12 +820,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="F9">
-        <v>815.203901135842</v>
+        <v>2998.766559793364</v>
       </c>
       <c r="G9">
-        <v>1080.108991825613</v>
+        <v>4413.184231346278</v>
       </c>
       <c r="H9">
-        <v>1092.768155409432</v>
+        <v>4938.905410024832</v>
       </c>
       <c r="I9">
         <v>741.5039391235581</v>
@@ -852,13 +852,13 @@
         <v>947.8540093860879</v>
       </c>
       <c r="L9">
-        <v>0.6785555888071574</v>
+        <v>0.1501352784806279</v>
       </c>
       <c r="M9">
-        <v>0.7905334201000892</v>
+        <v>0.1934798573156969</v>
       </c>
       <c r="N9">
-        <v>1.162720158803732</v>
+        <v>0.3160812922535063</v>
       </c>
     </row>
     <row r="10">
@@ -874,12 +874,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -888,13 +888,13 @@
         </is>
       </c>
       <c r="F10">
-        <v>1781.443155951778</v>
+        <v>5618.395126460911</v>
       </c>
       <c r="G10">
-        <v>2427.792915531335</v>
+        <v>8706.714228991126</v>
       </c>
       <c r="H10">
-        <v>2482.217822635579</v>
+        <v>9847.662658649853</v>
       </c>
       <c r="I10">
         <v>2134.132450420766</v>
@@ -906,13 +906,13 @@
         <v>2926.74126686664</v>
       </c>
       <c r="L10">
-        <v>0.8597684018539428</v>
+        <v>0.2167146179145582</v>
       </c>
       <c r="M10">
-        <v>1.098553117388304</v>
+        <v>0.3063221561642122</v>
       </c>
       <c r="N10">
-        <v>1.642904662485826</v>
+        <v>0.5209212241201389</v>
       </c>
     </row>
     <row r="11">
@@ -928,12 +928,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="F11">
-        <v>60.95237154654587</v>
+        <v>187.8315816035676</v>
       </c>
       <c r="G11">
-        <v>80.3814713896458</v>
+        <v>260.8161322306694</v>
       </c>
       <c r="H11">
-        <v>91.60501225809563</v>
+        <v>301.24927098577</v>
       </c>
       <c r="I11">
         <v>67.06126629136298</v>
@@ -960,13 +960,13 @@
         <v>90.55653820005834</v>
       </c>
       <c r="L11">
-        <v>0.732069835899579</v>
+        <v>0.2226105512950129</v>
       </c>
       <c r="M11">
-        <v>1.072769465221664</v>
+        <v>0.3306190738237661</v>
       </c>
       <c r="N11">
-        <v>1.48569343410872</v>
+        <v>0.4821156135030828</v>
       </c>
     </row>
     <row r="12">
@@ -982,12 +982,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="F12">
-        <v>183.7317715700675</v>
+        <v>599.9163732470366</v>
       </c>
       <c r="G12">
-        <v>240.8719346049047</v>
+        <v>740.5651298658524</v>
       </c>
       <c r="H12">
-        <v>277.8081531846856</v>
+        <v>820.4676522885334</v>
       </c>
       <c r="I12">
         <v>232.891646959818</v>
@@ -1014,13 +1014,13 @@
         <v>348.7957144384469</v>
       </c>
       <c r="L12">
-        <v>0.8383182577258368</v>
+        <v>0.2838523204543317</v>
       </c>
       <c r="M12">
-        <v>1.166932718547978</v>
+        <v>0.3795497926311056</v>
       </c>
       <c r="N12">
-        <v>1.898396295087325</v>
+        <v>0.5814072260615197</v>
       </c>
     </row>
     <row r="13">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="F13">
-        <v>457.4511213649189</v>
+        <v>1275.611277477278</v>
       </c>
       <c r="G13">
-        <v>601.9073569482289</v>
+        <v>1474.982113013738</v>
       </c>
       <c r="H13">
-        <v>691.7174290460912</v>
+        <v>1687.628985088215</v>
       </c>
       <c r="I13">
         <v>499.9909230798828</v>
@@ -1068,13 +1068,13 @@
         <v>783.7998158729773</v>
       </c>
       <c r="L13">
-        <v>0.7228253938452762</v>
+        <v>0.2962682719352249</v>
       </c>
       <c r="M13">
-        <v>1.132893642022694</v>
+        <v>0.4623086692082358</v>
       </c>
       <c r="N13">
-        <v>1.713406699133923</v>
+        <v>0.6144503656498432</v>
       </c>
     </row>
     <row r="14">
@@ -1090,12 +1090,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1104,13 +1104,13 @@
         </is>
       </c>
       <c r="F14">
-        <v>52.51201795869967</v>
+        <v>110.8406982886948</v>
       </c>
       <c r="G14">
-        <v>55.43275526344839</v>
+        <v>126.7853996293395</v>
       </c>
       <c r="H14">
-        <v>78.25921738872327</v>
+        <v>134.4531173703064</v>
       </c>
       <c r="I14">
         <v>29.07538456755402</v>
@@ -1122,13 +1122,13 @@
         <v>57.26652498448171</v>
       </c>
       <c r="L14">
-        <v>0.3715266461601957</v>
+        <v>0.2162492408969258</v>
       </c>
       <c r="M14">
-        <v>0.7115468892540283</v>
+        <v>0.3111005264470456</v>
       </c>
       <c r="N14">
-        <v>1.090541312457682</v>
+        <v>0.5166561188141</v>
       </c>
     </row>
     <row r="15">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="F15">
-        <v>23.99280358235838</v>
+        <v>56.68425598969418</v>
       </c>
       <c r="G15">
-        <v>28.06539509536785</v>
+        <v>59.06125296068936</v>
       </c>
       <c r="H15">
-        <v>44.73106115408496</v>
+        <v>74.98971663192548</v>
       </c>
       <c r="I15">
         <v>4.471269149416735</v>
@@ -1176,13 +1176,13 @@
         <v>18.47358585689362</v>
       </c>
       <c r="L15">
-        <v>0.09995893310052643</v>
+        <v>0.05962509728318104</v>
       </c>
       <c r="M15">
-        <v>0.3091418587173138</v>
+        <v>0.1469015296914306</v>
       </c>
       <c r="N15">
-        <v>0.7699636181941248</v>
+        <v>0.3259032959743235</v>
       </c>
     </row>
     <row r="16">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="F16">
-        <v>110.4236238598527</v>
+        <v>339.6017943230838</v>
       </c>
       <c r="G16">
-        <v>119.6185286103542</v>
+        <v>356.2971464738249</v>
       </c>
       <c r="H16">
-        <v>139.1732890276307</v>
+        <v>373.1875696009629</v>
       </c>
       <c r="I16">
         <v>100.4609539066659</v>
@@ -1230,13 +1230,13 @@
         <v>201.85053009163</v>
       </c>
       <c r="L16">
-        <v>0.7218407685020714</v>
+        <v>0.2691969456916409</v>
       </c>
       <c r="M16">
-        <v>1.159536318319879</v>
+        <v>0.3892875080263403</v>
       </c>
       <c r="N16">
-        <v>1.827965095112386</v>
+        <v>0.5943741566323922</v>
       </c>
     </row>
     <row r="17">
@@ -1252,12 +1252,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1266,13 +1266,13 @@
         </is>
       </c>
       <c r="F17">
-        <v>207.7579226818532</v>
+        <v>815.2480760019552</v>
       </c>
       <c r="G17">
-        <v>224.7956403269755</v>
+        <v>823.8351487497587</v>
       </c>
       <c r="H17">
-        <v>227.6611318209344</v>
+        <v>881.2374202620683</v>
       </c>
       <c r="I17">
         <v>148.1695837131677</v>
@@ -1284,13 +1284,13 @@
         <v>283.3540833555464</v>
       </c>
       <c r="L17">
-        <v>0.650833906201036</v>
+        <v>0.168138097981704</v>
       </c>
       <c r="M17">
-        <v>1.032548993020385</v>
+        <v>0.2817463085997753</v>
       </c>
       <c r="N17">
-        <v>1.363866560167027</v>
+        <v>0.347567926495624</v>
       </c>
     </row>
     <row r="18">
@@ -1306,12 +1306,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="F18">
-        <v>259.2523517209403</v>
+        <v>738.218433821816</v>
       </c>
       <c r="G18">
-        <v>269.7308614800278</v>
+        <v>755.2099087405041</v>
       </c>
       <c r="H18">
-        <v>299.6045559800623</v>
+        <v>777.8337871978738</v>
       </c>
       <c r="I18">
         <v>276.4837971676466</v>
@@ -1338,13 +1338,13 @@
         <v>547.1374249429063</v>
       </c>
       <c r="L18">
-        <v>0.9228290813643225</v>
+        <v>0.3554535708247805</v>
       </c>
       <c r="M18">
-        <v>1.586406889299718</v>
+        <v>0.5666012746340894</v>
       </c>
       <c r="N18">
-        <v>2.110443439802798</v>
+        <v>0.7411592556830801</v>
       </c>
     </row>
     <row r="19">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Abra a.</t>
+          <t>L. balthica</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Abra_alba</t>
+          <t>Limecola_balthica</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="F19">
-        <v>7848.070002814082</v>
+        <v>27762.66865945869</v>
       </c>
       <c r="G19">
-        <v>10019.07</v>
+        <v>38852.78</v>
       </c>
       <c r="H19">
-        <v>10606.24557935731</v>
+        <v>44064.12299732314</v>
       </c>
       <c r="I19">
         <v>8654.842999044244</v>
@@ -1392,13 +1392,13 @@
         <v>12596.2624355253</v>
       </c>
       <c r="L19">
-        <v>0.8160138226375755</v>
+        <v>0.1964147340358962</v>
       </c>
       <c r="M19">
-        <v>1.147291115842089</v>
+        <v>0.2958550198981901</v>
       </c>
       <c r="N19">
-        <v>1.605014026506983</v>
+        <v>0.4537122345849766</v>
       </c>
     </row>
     <row r="20">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1428,13 +1428,13 @@
         </is>
       </c>
       <c r="F20">
-        <v>618.4057195844357</v>
+        <v>1190.578931809114</v>
       </c>
       <c r="G20">
-        <v>621.0241808602243</v>
+        <v>1190.578931809114</v>
       </c>
       <c r="H20">
-        <v>1106.20700616288</v>
+        <v>1190.578931809114</v>
       </c>
       <c r="I20">
         <v>772.5992435017812</v>
@@ -1446,13 +1446,13 @@
         <v>1190.784036563229</v>
       </c>
       <c r="L20">
-        <v>0.6984219401951809</v>
+        <v>0.6489273603454395</v>
       </c>
       <c r="M20">
-        <v>1.560307065626856</v>
+        <v>0.8138800304898197</v>
       </c>
       <c r="N20">
-        <v>1.925570865294434</v>
+        <v>1.000172273125818</v>
       </c>
     </row>
     <row r="21">
@@ -1468,12 +1468,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="F21">
-        <v>106.9790419390537</v>
+        <v>278.4449760363406</v>
       </c>
       <c r="G21">
-        <v>110.4647932030552</v>
+        <v>278.4449760363406</v>
       </c>
       <c r="H21">
-        <v>187.262443652177</v>
+        <v>278.4449760363406</v>
       </c>
       <c r="I21">
         <v>124.1490551585352</v>
@@ -1500,13 +1500,13 @@
         <v>208.6931016505882</v>
       </c>
       <c r="L21">
-        <v>0.6629682532026059</v>
+        <v>0.4458656677013709</v>
       </c>
       <c r="M21">
-        <v>1.514707111631734</v>
+        <v>0.600915161880166</v>
       </c>
       <c r="N21">
-        <v>1.950784918876741</v>
+        <v>0.7494949437455505</v>
       </c>
     </row>
     <row r="22">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1536,13 +1536,13 @@
         </is>
       </c>
       <c r="F22">
-        <v>710.5008090626461</v>
+        <v>1165.159333450705</v>
       </c>
       <c r="G22">
-        <v>718.8389117869915</v>
+        <v>1165.159333450705</v>
       </c>
       <c r="H22">
-        <v>1234.019926846996</v>
+        <v>1165.159333450705</v>
       </c>
       <c r="I22">
         <v>677.5498310319136</v>
@@ -1554,13 +1554,13 @@
         <v>1005.336428291718</v>
       </c>
       <c r="L22">
-        <v>0.5490590680841752</v>
+        <v>0.5815083067011101</v>
       </c>
       <c r="M22">
-        <v>1.148817155526237</v>
+        <v>0.7087566912200726</v>
       </c>
       <c r="N22">
-        <v>1.4149687311659</v>
+        <v>0.8628317170273527</v>
       </c>
     </row>
     <row r="23">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1590,13 +1590,13 @@
         </is>
       </c>
       <c r="F23">
-        <v>484.3162980676161</v>
+        <v>1033.298248299404</v>
       </c>
       <c r="G23">
-        <v>489.5534006466758</v>
+        <v>1033.298248299404</v>
       </c>
       <c r="H23">
-        <v>804.1662310018988</v>
+        <v>1033.298248299404</v>
       </c>
       <c r="I23">
         <v>730.4094819018429</v>
@@ -1608,13 +1608,13 @@
         <v>1117.260656539696</v>
       </c>
       <c r="L23">
-        <v>0.908281713087898</v>
+        <v>0.7068718863154433</v>
       </c>
       <c r="M23">
-        <v>1.958188403613171</v>
+        <v>0.9277454923333446</v>
       </c>
       <c r="N23">
-        <v>2.306882219321295</v>
+        <v>1.08125670238818</v>
       </c>
     </row>
     <row r="24">
@@ -1630,12 +1630,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1644,13 +1644,13 @@
         </is>
       </c>
       <c r="F24">
-        <v>156.1846624139561</v>
+        <v>389.970337847485</v>
       </c>
       <c r="G24">
-        <v>159.6475280911156</v>
+        <v>389.970337847485</v>
       </c>
       <c r="H24">
-        <v>239.7960091172758</v>
+        <v>389.970337847485</v>
       </c>
       <c r="I24">
         <v>202.8582750800992</v>
@@ -1662,13 +1662,13 @@
         <v>287.6133459859888</v>
       </c>
       <c r="L24">
-        <v>0.8459618482678263</v>
+        <v>0.5201889871927536</v>
       </c>
       <c r="M24">
-        <v>1.602044848307706</v>
+        <v>0.6558511637966133</v>
       </c>
       <c r="N24">
-        <v>1.841495455063894</v>
+        <v>0.737526211797351</v>
       </c>
     </row>
     <row r="25">
@@ -1684,12 +1684,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1698,13 +1698,13 @@
         </is>
       </c>
       <c r="F25">
-        <v>205.9374682386839</v>
+        <v>485.940747497716</v>
       </c>
       <c r="G25">
-        <v>212.4513333668671</v>
+        <v>485.940747497716</v>
       </c>
       <c r="H25">
-        <v>318.4351498143598</v>
+        <v>485.940747497716</v>
       </c>
       <c r="I25">
         <v>164.3218993535436</v>
@@ -1716,13 +1716,13 @@
         <v>233.7952059214437</v>
       </c>
       <c r="L25">
-        <v>0.5160294001756383</v>
+        <v>0.3381521310976622</v>
       </c>
       <c r="M25">
-        <v>0.9449209428307385</v>
+        <v>0.4131156221502318</v>
       </c>
       <c r="N25">
-        <v>1.135272798685047</v>
+        <v>0.481118751875284</v>
       </c>
     </row>
     <row r="26">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="F26">
-        <v>853.7709578744921</v>
+        <v>1989.041742376852</v>
       </c>
       <c r="G26">
-        <v>883.1571977801186</v>
+        <v>1989.041742376852</v>
       </c>
       <c r="H26">
-        <v>1346.473883159149</v>
+        <v>1989.041742376852</v>
       </c>
       <c r="I26">
         <v>1158.085593833882</v>
@@ -1770,13 +1770,13 @@
         <v>1796.050300226435</v>
       </c>
       <c r="L26">
-        <v>0.8600876766482372</v>
+        <v>0.5822329261174783</v>
       </c>
       <c r="M26">
-        <v>1.66897294718402</v>
+        <v>0.7410430056860017</v>
       </c>
       <c r="N26">
-        <v>2.103667598037999</v>
+        <v>0.9029726535955961</v>
       </c>
     </row>
     <row r="27">
@@ -1792,12 +1792,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1806,13 +1806,13 @@
         </is>
       </c>
       <c r="F27">
-        <v>682.0089381511586</v>
+        <v>1415.631206050954</v>
       </c>
       <c r="G27">
-        <v>689.2405041108842</v>
+        <v>1415.631206050954</v>
       </c>
       <c r="H27">
-        <v>1142.2821694748</v>
+        <v>1415.631206050954</v>
       </c>
       <c r="I27">
         <v>741.5039391235581</v>
@@ -1824,13 +1824,13 @@
         <v>947.8540093860879</v>
       </c>
       <c r="L27">
-        <v>0.649142531450428</v>
+        <v>0.5237973957864762</v>
       </c>
       <c r="M27">
-        <v>1.238845149546511</v>
+        <v>0.603167160867198</v>
       </c>
       <c r="N27">
-        <v>1.389797048636345</v>
+        <v>0.6695628108045332</v>
       </c>
     </row>
     <row r="28">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="F28">
-        <v>1506.249833039021</v>
+        <v>3299.692822274697</v>
       </c>
       <c r="G28">
-        <v>1532.57983667353</v>
+        <v>3299.692822274697</v>
       </c>
       <c r="H28">
-        <v>2259.821806293568</v>
+        <v>3299.692822274697</v>
       </c>
       <c r="I28">
         <v>2134.132450420766</v>
@@ -1878,13 +1878,13 @@
         <v>2926.74126686664</v>
       </c>
       <c r="L28">
-        <v>0.9443808553741893</v>
+        <v>0.646767006920834</v>
       </c>
       <c r="M28">
-        <v>1.740241788329311</v>
+        <v>0.8082750787364524</v>
       </c>
       <c r="N28">
-        <v>1.943064956868161</v>
+        <v>0.8869738562055128</v>
       </c>
     </row>
     <row r="29">
@@ -1900,12 +1900,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1914,13 +1914,13 @@
         </is>
       </c>
       <c r="F29">
-        <v>63.72946522278195</v>
+        <v>180.5778204882251</v>
       </c>
       <c r="G29">
-        <v>64.41689046365944</v>
+        <v>180.5778204882251</v>
       </c>
       <c r="H29">
-        <v>91.8366337251303</v>
+        <v>180.5778204882251</v>
       </c>
       <c r="I29">
         <v>67.06126629136298</v>
@@ -1932,13 +1932,13 @@
         <v>90.55653820005834</v>
       </c>
       <c r="L29">
-        <v>0.730223480229897</v>
+        <v>0.3713704490953021</v>
       </c>
       <c r="M29">
-        <v>1.338636302617675</v>
+        <v>0.4775270176772549</v>
       </c>
       <c r="N29">
-        <v>1.420952425749938</v>
+        <v>0.5014820643821164</v>
       </c>
     </row>
     <row r="30">
@@ -1954,12 +1954,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1968,13 +1968,13 @@
         </is>
       </c>
       <c r="F30">
-        <v>200.4672835581389</v>
+        <v>347.1731640928389</v>
       </c>
       <c r="G30">
-        <v>204.3855882965571</v>
+        <v>347.1731640928389</v>
       </c>
       <c r="H30">
-        <v>264.1774908775595</v>
+        <v>347.1731640928389</v>
       </c>
       <c r="I30">
         <v>232.891646959818</v>
@@ -1986,13 +1986,13 @@
         <v>348.7957144384469</v>
       </c>
       <c r="L30">
-        <v>0.8815726358297428</v>
+        <v>0.6708227220510038</v>
       </c>
       <c r="M30">
-        <v>1.375250299265582</v>
+        <v>0.8096286537724646</v>
       </c>
       <c r="N30">
-        <v>1.739913407552561</v>
+        <v>1.004673605316954</v>
       </c>
     </row>
     <row r="31">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="F31">
-        <v>385.1642039878765</v>
+        <v>601.0328968394422</v>
       </c>
       <c r="G31">
-        <v>395.9487182055946</v>
+        <v>601.0328968394422</v>
       </c>
       <c r="H31">
-        <v>556.831688036081</v>
+        <v>601.0328968394422</v>
       </c>
       <c r="I31">
         <v>499.9909230798828</v>
@@ -2040,13 +2040,13 @@
         <v>783.7998158729773</v>
       </c>
       <c r="L31">
-        <v>0.8979211022334722</v>
+        <v>0.8318861175637923</v>
       </c>
       <c r="M31">
-        <v>1.722185188182023</v>
+        <v>1.134541921680357</v>
       </c>
       <c r="N31">
-        <v>2.034975752569282</v>
+        <v>1.304088045753607</v>
       </c>
     </row>
     <row r="32">
@@ -2062,12 +2062,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2076,13 +2076,13 @@
         </is>
       </c>
       <c r="F32">
-        <v>52.45477077152431</v>
+        <v>183.4691257886101</v>
       </c>
       <c r="G32">
-        <v>53.86691012441251</v>
+        <v>183.4691257886101</v>
       </c>
       <c r="H32">
-        <v>66.70679765659054</v>
+        <v>183.4691257886101</v>
       </c>
       <c r="I32">
         <v>29.07538456755402</v>
@@ -2094,13 +2094,13 @@
         <v>57.26652498448171</v>
       </c>
       <c r="L32">
-        <v>0.435868391063162</v>
+        <v>0.1584756260355989</v>
       </c>
       <c r="M32">
-        <v>0.732230686322789</v>
+        <v>0.2149844253137834</v>
       </c>
       <c r="N32">
-        <v>1.091731488712739</v>
+        <v>0.3121316719547855</v>
       </c>
     </row>
     <row r="33">
@@ -2116,12 +2116,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2130,13 +2130,13 @@
         </is>
       </c>
       <c r="F33">
-        <v>25.54615433178311</v>
+        <v>106.2718606638141</v>
       </c>
       <c r="G33">
-        <v>27.86340166001563</v>
+        <v>106.2718606638141</v>
       </c>
       <c r="H33">
-        <v>31.16514457797946</v>
+        <v>106.2718606638141</v>
       </c>
       <c r="I33">
         <v>4.471269149416735</v>
@@ -2148,13 +2148,13 @@
         <v>18.47358585689362</v>
       </c>
       <c r="L33">
-        <v>0.1434701879283444</v>
+        <v>0.04207387657925159</v>
       </c>
       <c r="M33">
-        <v>0.3113829571594717</v>
+        <v>0.0816414462984186</v>
       </c>
       <c r="N33">
-        <v>0.7231454729728072</v>
+        <v>0.1738332776099021</v>
       </c>
     </row>
     <row r="34">
@@ -2170,12 +2170,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2184,13 +2184,13 @@
         </is>
       </c>
       <c r="F34">
-        <v>113.6311238901382</v>
+        <v>237.225819629027</v>
       </c>
       <c r="G34">
-        <v>113.826139712706</v>
+        <v>237.225819629027</v>
       </c>
       <c r="H34">
-        <v>174.2428780738609</v>
+        <v>237.225819629027</v>
       </c>
       <c r="I34">
         <v>100.4609539066659</v>
@@ -2202,13 +2202,13 @@
         <v>201.85053009163</v>
       </c>
       <c r="L34">
-        <v>0.5765570163738967</v>
+        <v>0.4234823766812837</v>
       </c>
       <c r="M34">
-        <v>1.218542846289713</v>
+        <v>0.584683524266427</v>
       </c>
       <c r="N34">
-        <v>1.776366572654732</v>
+        <v>0.8508792609813017</v>
       </c>
     </row>
     <row r="35">
@@ -2224,12 +2224,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="F35">
-        <v>169.463214694038</v>
+        <v>345.2821378934838</v>
       </c>
       <c r="G35">
-        <v>172.3058503434584</v>
+        <v>345.2821378934838</v>
       </c>
       <c r="H35">
-        <v>274.6806793055314</v>
+        <v>345.2821378934838</v>
       </c>
       <c r="I35">
         <v>148.1695837131677</v>
@@ -2256,13 +2256,13 @@
         <v>283.3540833555464</v>
       </c>
       <c r="L35">
-        <v>0.5394248481101085</v>
+        <v>0.4291261187651606</v>
       </c>
       <c r="M35">
-        <v>1.347095943592861</v>
+        <v>0.672240138082659</v>
       </c>
       <c r="N35">
-        <v>1.672068382906201</v>
+        <v>0.8206450674924818</v>
       </c>
     </row>
     <row r="36">
@@ -2278,12 +2278,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2292,13 +2292,13 @@
         </is>
       </c>
       <c r="F36">
-        <v>273.0969912128556</v>
+        <v>519.7714291273762</v>
       </c>
       <c r="G36">
-        <v>277.5737469170146</v>
+        <v>519.7714291273762</v>
       </c>
       <c r="H36">
-        <v>423.3317329670879</v>
+        <v>519.7714291273762</v>
       </c>
       <c r="I36">
         <v>276.4837971676466</v>
@@ -2310,13 +2310,13 @@
         <v>547.1374249429063</v>
       </c>
       <c r="L36">
-        <v>0.6531138009187277</v>
+        <v>0.5319334262597396</v>
       </c>
       <c r="M36">
-        <v>1.541582738502258</v>
+        <v>0.8232520545176045</v>
       </c>
       <c r="N36">
-        <v>2.003454606046757</v>
+        <v>1.05265005785615</v>
       </c>
     </row>
     <row r="37">
@@ -2332,12 +2332,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cerastoderma e.</t>
+          <t>N. nitidosa</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cerastoderma_edule</t>
+          <t>Nucula_nitidosa</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="F37">
-        <v>7037.853035783039</v>
+        <v>15105.17395433452</v>
       </c>
       <c r="G37">
-        <v>7149.14</v>
+        <v>15105.17</v>
       </c>
       <c r="H37">
-        <v>11174.89305931812</v>
+        <v>15105.17395433452</v>
       </c>
       <c r="I37">
         <v>8654.842999044244</v>
@@ -2364,13 +2364,13 @@
         <v>12596.2624355253</v>
       </c>
       <c r="L37">
-        <v>0.7744900065801931</v>
+        <v>0.5729720839501277</v>
       </c>
       <c r="M37">
-        <v>1.607856329572508</v>
+        <v>0.7609838220953489</v>
       </c>
       <c r="N37">
-        <v>1.789787648517418</v>
+        <v>0.8339038314689995</v>
       </c>
     </row>
     <row r="38">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2400,13 +2400,13 @@
         </is>
       </c>
       <c r="F38">
-        <v>1104.610985261482</v>
+        <v>772.6225486117112</v>
       </c>
       <c r="G38">
-        <v>1104.610985261482</v>
+        <v>894.722968276412</v>
       </c>
       <c r="H38">
-        <v>1104.610985261482</v>
+        <v>1006.669471663523</v>
       </c>
       <c r="I38">
         <v>772.5992435017812</v>
@@ -2418,13 +2418,13 @@
         <v>1190.784036563229</v>
       </c>
       <c r="L38">
-        <v>0.6994310701327061</v>
+        <v>0.767480553696597</v>
       </c>
       <c r="M38">
-        <v>0.8772214202558929</v>
+        <v>1.083003847758587</v>
       </c>
       <c r="N38">
-        <v>1.078012125944364</v>
+        <v>1.541223510371128</v>
       </c>
     </row>
     <row r="39">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2454,13 +2454,13 @@
         </is>
       </c>
       <c r="F39">
-        <v>231.9354231929473</v>
+        <v>137.2098708522342</v>
       </c>
       <c r="G39">
-        <v>231.9354231929473</v>
+        <v>143.4687988942314</v>
       </c>
       <c r="H39">
-        <v>231.9354231929473</v>
+        <v>155.3550526283206</v>
       </c>
       <c r="I39">
         <v>124.1490551585352</v>
@@ -2472,13 +2472,13 @@
         <v>208.6931016505882</v>
       </c>
       <c r="L39">
-        <v>0.535274230427732</v>
+        <v>0.799131106830209</v>
       </c>
       <c r="M39">
-        <v>0.7214154937876883</v>
+        <v>1.16625920854715</v>
       </c>
       <c r="N39">
-        <v>0.8997896861876775</v>
+        <v>1.520977320030689</v>
       </c>
     </row>
     <row r="40">
@@ -2494,12 +2494,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2508,13 +2508,13 @@
         </is>
       </c>
       <c r="F40">
-        <v>1130.026714443769</v>
+        <v>841.8361538439626</v>
       </c>
       <c r="G40">
-        <v>1130.026714443769</v>
+        <v>923.2200108001848</v>
       </c>
       <c r="H40">
-        <v>1130.026714443769</v>
+        <v>1041.595574090698</v>
       </c>
       <c r="I40">
         <v>677.5498310319136</v>
@@ -2526,13 +2526,13 @@
         <v>1005.336428291718</v>
       </c>
       <c r="L40">
-        <v>0.5995874454750593</v>
+        <v>0.6504922331523995</v>
       </c>
       <c r="M40">
-        <v>0.7307919922293131</v>
+        <v>0.8944936897597645</v>
       </c>
       <c r="N40">
-        <v>0.8896572226494422</v>
+        <v>1.19421864183569</v>
       </c>
     </row>
     <row r="41">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="F41">
-        <v>831.013663998392</v>
+        <v>618.7944792650655</v>
       </c>
       <c r="G41">
-        <v>831.013663998392</v>
+        <v>653.8074640573184</v>
       </c>
       <c r="H41">
-        <v>831.013663998392</v>
+        <v>725.3442833041213</v>
       </c>
       <c r="I41">
         <v>730.4094819018429</v>
@@ -2580,13 +2580,13 @@
         <v>1117.260656539696</v>
       </c>
       <c r="L41">
-        <v>0.8789379928935276</v>
+        <v>1.006983164704419</v>
       </c>
       <c r="M41">
-        <v>1.153576449613671</v>
+        <v>1.466238678504396</v>
       </c>
       <c r="N41">
-        <v>1.344455217696466</v>
+        <v>1.80554399558744</v>
       </c>
     </row>
     <row r="42">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2616,13 +2616,13 @@
         </is>
       </c>
       <c r="F42">
-        <v>401.5401287919325</v>
+        <v>168.076921762157</v>
       </c>
       <c r="G42">
-        <v>401.5401287919325</v>
+        <v>184.9889992539026</v>
       </c>
       <c r="H42">
-        <v>401.5401287919325</v>
+        <v>221.0914691753729</v>
       </c>
       <c r="I42">
         <v>202.8582750800992</v>
@@ -2634,13 +2634,13 @@
         <v>287.6133459859888</v>
       </c>
       <c r="L42">
-        <v>0.5052005030989443</v>
+        <v>0.9175309922030016</v>
       </c>
       <c r="M42">
-        <v>0.6369537726974254</v>
+        <v>1.382582212753042</v>
       </c>
       <c r="N42">
-        <v>0.7162754737647214</v>
+        <v>1.71120069888587</v>
       </c>
     </row>
     <row r="43">
@@ -2656,12 +2656,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2670,13 +2670,13 @@
         </is>
       </c>
       <c r="F43">
-        <v>433.9597965507548</v>
+        <v>221.2797259859317</v>
       </c>
       <c r="G43">
-        <v>433.9597965507548</v>
+        <v>241.192110610292</v>
       </c>
       <c r="H43">
-        <v>433.9597965507548</v>
+        <v>283.2051909483672</v>
       </c>
       <c r="I43">
         <v>164.3218993535436</v>
@@ -2688,13 +2688,13 @@
         <v>233.7952059214437</v>
       </c>
       <c r="L43">
-        <v>0.3786569646765076</v>
+        <v>0.5802220602075832</v>
       </c>
       <c r="M43">
-        <v>0.4625997980142117</v>
+        <v>0.8323228886828329</v>
       </c>
       <c r="N43">
-        <v>0.5387485379514864</v>
+        <v>1.056559541908993</v>
       </c>
     </row>
     <row r="44">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2724,13 +2724,13 @@
         </is>
       </c>
       <c r="F44">
-        <v>1433.74386915152</v>
+        <v>869.4510698105782</v>
       </c>
       <c r="G44">
-        <v>1433.74386915152</v>
+        <v>1038.069409884365</v>
       </c>
       <c r="H44">
-        <v>1433.74386915152</v>
+        <v>1296.500378370726</v>
       </c>
       <c r="I44">
         <v>1158.085593833882</v>
@@ -2742,13 +2742,13 @@
         <v>1796.050300226435</v>
       </c>
       <c r="L44">
-        <v>0.807735341542719</v>
+        <v>0.8932396882824013</v>
       </c>
       <c r="M44">
-        <v>1.028053547721984</v>
+        <v>1.419910323116117</v>
       </c>
       <c r="N44">
-        <v>1.252699550366221</v>
+        <v>2.06572901292505</v>
       </c>
     </row>
     <row r="45">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2778,13 +2778,13 @@
         </is>
       </c>
       <c r="F45">
-        <v>1102.675779204034</v>
+        <v>779.2335633873854</v>
       </c>
       <c r="G45">
-        <v>1102.675779204034</v>
+        <v>819.1824939992071</v>
       </c>
       <c r="H45">
-        <v>1102.675779204034</v>
+        <v>945.9049048754582</v>
       </c>
       <c r="I45">
         <v>741.5039391235581</v>
@@ -2796,13 +2796,13 @@
         <v>947.8540093860879</v>
       </c>
       <c r="L45">
-        <v>0.672458716431418</v>
+        <v>0.7839096037050232</v>
       </c>
       <c r="M45">
-        <v>0.7743547754400859</v>
+        <v>1.042334597777169</v>
       </c>
       <c r="N45">
-        <v>0.8595944766922297</v>
+        <v>1.216392688818096</v>
       </c>
     </row>
     <row r="46">
@@ -2818,12 +2818,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F46">
-        <v>2322.608754480231</v>
+        <v>1644.727493214505</v>
       </c>
       <c r="G46">
-        <v>2322.608754480231</v>
+        <v>1940.014870850954</v>
       </c>
       <c r="H46">
-        <v>2322.608754480231</v>
+        <v>2378.869702987929</v>
       </c>
       <c r="I46">
         <v>2134.132450420766</v>
@@ -2850,13 +2850,13 @@
         <v>2926.74126686664</v>
       </c>
       <c r="L46">
-        <v>0.9188514623068127</v>
+        <v>0.8971203625571564</v>
       </c>
       <c r="M46">
-        <v>1.148303376789364</v>
+        <v>1.374762387548261</v>
       </c>
       <c r="N46">
-        <v>1.26010946149284</v>
+        <v>1.779468804979073</v>
       </c>
     </row>
     <row r="47">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2886,13 +2886,13 @@
         </is>
       </c>
       <c r="F47">
-        <v>43.2780432447659</v>
+        <v>67.86042049334752</v>
       </c>
       <c r="G47">
-        <v>43.2780432447659</v>
+        <v>79.39496541035743</v>
       </c>
       <c r="H47">
-        <v>43.2780432447659</v>
+        <v>92.71009747438532</v>
       </c>
       <c r="I47">
         <v>67.06126629136298</v>
@@ -2904,13 +2904,13 @@
         <v>90.55653820005834</v>
       </c>
       <c r="L47">
-        <v>1.549544786766057</v>
+        <v>0.7233437146357353</v>
       </c>
       <c r="M47">
-        <v>1.992483523081411</v>
+        <v>1.086098943814788</v>
       </c>
       <c r="N47">
-        <v>2.092436057885088</v>
+        <v>1.334452948297539</v>
       </c>
     </row>
     <row r="48">
@@ -2926,12 +2926,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2940,13 +2940,13 @@
         </is>
       </c>
       <c r="F48">
-        <v>91.74856375457006</v>
+        <v>173.6051268993269</v>
       </c>
       <c r="G48">
-        <v>91.74856375457006</v>
+        <v>207.8610010729948</v>
       </c>
       <c r="H48">
-        <v>91.74856375457006</v>
+        <v>232.7508717114007</v>
       </c>
       <c r="I48">
         <v>232.891646959818</v>
@@ -2958,13 +2958,13 @@
         <v>348.7957144384469</v>
       </c>
       <c r="L48">
-        <v>2.538368312585356</v>
+        <v>1.000604832314406</v>
       </c>
       <c r="M48">
-        <v>3.063604812630228</v>
+        <v>1.352256267503034</v>
       </c>
       <c r="N48">
-        <v>3.8016476788834</v>
+        <v>2.009132568076244</v>
       </c>
     </row>
     <row r="49">
@@ -2980,12 +2980,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2994,13 +2994,13 @@
         </is>
       </c>
       <c r="F49">
-        <v>149.9450390828956</v>
+        <v>402.7249268806773</v>
       </c>
       <c r="G49">
-        <v>149.9450390828956</v>
+        <v>500.9046989974942</v>
       </c>
       <c r="H49">
-        <v>149.9450390828956</v>
+        <v>563.7943788420048</v>
       </c>
       <c r="I49">
         <v>499.9909230798828</v>
@@ -3012,13 +3012,13 @@
         <v>783.7998158729773</v>
       </c>
       <c r="L49">
-        <v>3.334494599741096</v>
+        <v>0.8868320470076876</v>
       </c>
       <c r="M49">
-        <v>4.547646403935731</v>
+        <v>1.361330846242958</v>
       </c>
       <c r="N49">
-        <v>5.227247401227204</v>
+        <v>1.946241127769099</v>
       </c>
     </row>
     <row r="50">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3048,13 +3048,13 @@
         </is>
       </c>
       <c r="F50">
-        <v>87.3653646137514</v>
+        <v>67.25617141680613</v>
       </c>
       <c r="G50">
-        <v>87.3653646137514</v>
+        <v>78.58965095920577</v>
       </c>
       <c r="H50">
-        <v>87.3653646137514</v>
+        <v>87.89884992100977</v>
       </c>
       <c r="I50">
         <v>29.07538456755402</v>
@@ -3066,13 +3066,13 @@
         <v>57.26652498448171</v>
       </c>
       <c r="L50">
-        <v>0.3328021887861214</v>
+        <v>0.3307823093667618</v>
       </c>
       <c r="M50">
-        <v>0.4514718704015824</v>
+        <v>0.5018854784195517</v>
       </c>
       <c r="N50">
-        <v>0.6554831567138896</v>
+        <v>0.8514687020999803</v>
       </c>
     </row>
     <row r="51">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3102,13 +3102,13 @@
         </is>
       </c>
       <c r="F51">
-        <v>19.02768076251596</v>
+        <v>45.27136484315988</v>
       </c>
       <c r="G51">
-        <v>19.02768076251596</v>
+        <v>54.53807209783064</v>
       </c>
       <c r="H51">
-        <v>19.02768076251596</v>
+        <v>59.20255514752546</v>
       </c>
       <c r="I51">
         <v>4.471269149416735</v>
@@ -3120,13 +3120,13 @@
         <v>18.47358585689362</v>
       </c>
       <c r="L51">
-        <v>0.2349876059632564</v>
+        <v>0.07552493533893739</v>
       </c>
       <c r="M51">
-        <v>0.4559771899531586</v>
+        <v>0.1590849854364932</v>
       </c>
       <c r="N51">
-        <v>0.9708795353181513</v>
+        <v>0.4080633734126269</v>
       </c>
     </row>
     <row r="52">
@@ -3142,12 +3142,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3156,13 +3156,13 @@
         </is>
       </c>
       <c r="F52">
-        <v>180.0645517573649</v>
+        <v>143.0140859870187</v>
       </c>
       <c r="G52">
-        <v>180.0645517573649</v>
+        <v>182.8632609200307</v>
       </c>
       <c r="H52">
-        <v>180.0645517573649</v>
+        <v>194.5159653515473</v>
       </c>
       <c r="I52">
         <v>100.4609539066659</v>
@@ -3174,13 +3174,13 @@
         <v>201.85053009163</v>
       </c>
       <c r="L52">
-        <v>0.5579163301505116</v>
+        <v>0.5164663667843588</v>
       </c>
       <c r="M52">
-        <v>0.770290581427658</v>
+        <v>0.7585013390324917</v>
       </c>
       <c r="N52">
-        <v>1.120989823491864</v>
+        <v>1.411403140456751</v>
       </c>
     </row>
     <row r="53">
@@ -3196,12 +3196,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3210,13 +3210,13 @@
         </is>
       </c>
       <c r="F53">
-        <v>280.7137705661996</v>
+        <v>225.6275616693888</v>
       </c>
       <c r="G53">
-        <v>280.7137705661996</v>
+        <v>288.989180353492</v>
       </c>
       <c r="H53">
-        <v>280.7137705661996</v>
+        <v>310.7970960073976</v>
       </c>
       <c r="I53">
         <v>148.1695837131677</v>
@@ -3228,13 +3228,13 @@
         <v>283.3540833555464</v>
       </c>
       <c r="L53">
-        <v>0.5278315467542247</v>
+        <v>0.4767405668090315</v>
       </c>
       <c r="M53">
-        <v>0.8268654280366097</v>
+        <v>0.803187551073957</v>
       </c>
       <c r="N53">
-        <v>1.009405711675709</v>
+        <v>1.255848714842489</v>
       </c>
     </row>
     <row r="54">
@@ -3250,12 +3250,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3264,13 +3264,13 @@
         </is>
       </c>
       <c r="F54">
-        <v>439.5464172287062</v>
+        <v>299.1753945349601</v>
       </c>
       <c r="G54">
-        <v>439.5464172287062</v>
+        <v>399.1731754454836</v>
       </c>
       <c r="H54">
-        <v>439.5464172287062</v>
+        <v>438.0536752466281</v>
       </c>
       <c r="I54">
         <v>276.4837971676466</v>
@@ -3282,13 +3282,13 @@
         <v>547.1374249429063</v>
       </c>
       <c r="L54">
-        <v>0.6290207048230487</v>
+        <v>0.631164199254769</v>
       </c>
       <c r="M54">
-        <v>0.9735101462242521</v>
+        <v>1.071973076425082</v>
       </c>
       <c r="N54">
-        <v>1.244777351144277</v>
+        <v>1.828818261586584</v>
       </c>
     </row>
     <row r="55">
@@ -3304,12 +3304,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Corbula g.</t>
+          <t>S. plana</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Corbula_gibba</t>
+          <t>Scrobicularia_plana</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3318,13 +3318,13 @@
         </is>
       </c>
       <c r="F55">
-        <v>11146.60047995663</v>
+        <v>7878.51246412174</v>
       </c>
       <c r="G55">
-        <v>11146.6</v>
+        <v>8934.43</v>
       </c>
       <c r="H55">
-        <v>11146.60047995663</v>
+        <v>10534.9322738615</v>
       </c>
       <c r="I55">
         <v>8654.842999044244</v>
@@ -3336,13 +3336,13 @@
         <v>12596.2624355253</v>
       </c>
       <c r="L55">
-        <v>0.7764558364325553</v>
+        <v>0.8215376021465276</v>
       </c>
       <c r="M55">
-        <v>1.03123732797445</v>
+        <v>1.286572282730963</v>
       </c>
       <c r="N55">
-        <v>1.130054177340921</v>
+        <v>1.598812274891726</v>
       </c>
     </row>
     <row r="56">
@@ -3358,12 +3358,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3372,13 +3372,13 @@
         </is>
       </c>
       <c r="F56">
-        <v>1058.623239888162</v>
+        <v>668.536073299042</v>
       </c>
       <c r="G56">
-        <v>1058.623239888162</v>
+        <v>800.4532280941636</v>
       </c>
       <c r="H56">
-        <v>1058.623239888162</v>
+        <v>835.3764778072998</v>
       </c>
       <c r="I56">
         <v>772.5992435017812</v>
@@ -3390,13 +3390,13 @@
         <v>1190.784036563229</v>
       </c>
       <c r="L56">
-        <v>0.7298151168336358</v>
+        <v>0.9248515657631435</v>
       </c>
       <c r="M56">
-        <v>0.9153288732105549</v>
+        <v>1.210549702733348</v>
       </c>
       <c r="N56">
-        <v>1.124842145623998</v>
+        <v>1.781181426287196</v>
       </c>
     </row>
     <row r="57">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3426,13 +3426,13 @@
         </is>
       </c>
       <c r="F57">
-        <v>163.1407918640199</v>
+        <v>119.6923422406473</v>
       </c>
       <c r="G57">
-        <v>163.1407918640199</v>
+        <v>134.0599455040872</v>
       </c>
       <c r="H57">
-        <v>163.1407918640199</v>
+        <v>154.5880322817653</v>
       </c>
       <c r="I57">
         <v>124.1490551585352</v>
@@ -3444,13 +3444,13 @@
         <v>208.6931016505882</v>
       </c>
       <c r="L57">
-        <v>0.7609933342852424</v>
+        <v>0.8030961603305139</v>
       </c>
       <c r="M57">
-        <v>1.025628268306198</v>
+        <v>1.248111859365893</v>
       </c>
       <c r="N57">
-        <v>1.279220845173639</v>
+        <v>1.743579394837145</v>
       </c>
     </row>
     <row r="58">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3480,13 +3480,13 @@
         </is>
       </c>
       <c r="F58">
-        <v>1129.266831255854</v>
+        <v>722.5581648708477</v>
       </c>
       <c r="G58">
-        <v>1129.266831255854</v>
+        <v>905.9945504087194</v>
       </c>
       <c r="H58">
-        <v>1129.266831255854</v>
+        <v>950.6561589779649</v>
       </c>
       <c r="I58">
         <v>677.5498310319136</v>
@@ -3498,13 +3498,13 @@
         <v>1005.336428291718</v>
       </c>
       <c r="L58">
-        <v>0.5999909076213745</v>
+        <v>0.7127180785956686</v>
       </c>
       <c r="M58">
-        <v>0.7312837418613642</v>
+        <v>0.9115004870042088</v>
       </c>
       <c r="N58">
-        <v>0.890255872629931</v>
+        <v>1.391357093683129</v>
       </c>
     </row>
     <row r="59">
@@ -3520,12 +3520,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3534,13 +3534,13 @@
         </is>
       </c>
       <c r="F59">
-        <v>844.1623134453016</v>
+        <v>467.0632635912841</v>
       </c>
       <c r="G59">
-        <v>844.1623134453016</v>
+        <v>584.0397261849863</v>
       </c>
       <c r="H59">
-        <v>844.1623134453016</v>
+        <v>597.8781737191962</v>
       </c>
       <c r="I59">
         <v>730.4094819018429</v>
@@ -3552,13 +3552,13 @@
         <v>1117.260656539696</v>
       </c>
       <c r="L59">
-        <v>0.8652476784006191</v>
+        <v>1.221669420307175</v>
       </c>
       <c r="M59">
-        <v>1.135608373919465</v>
+        <v>1.641391414172532</v>
       </c>
       <c r="N59">
-        <v>1.323514019454139</v>
+        <v>2.392097053296369</v>
       </c>
     </row>
     <row r="60">
@@ -3574,12 +3574,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="F60">
-        <v>269.8189212323961</v>
+        <v>147.6312080691964</v>
       </c>
       <c r="G60">
-        <v>269.8189212323961</v>
+        <v>179.0190735694823</v>
       </c>
       <c r="H60">
-        <v>269.8189212323961</v>
+        <v>206.1675719574131</v>
       </c>
       <c r="I60">
         <v>202.8582750800992</v>
@@ -3606,13 +3606,13 @@
         <v>287.6133459859888</v>
       </c>
       <c r="L60">
-        <v>0.7518311694137141</v>
+        <v>0.9839485092350145</v>
       </c>
       <c r="M60">
-        <v>0.9479042416863799</v>
+        <v>1.428688545995424</v>
       </c>
       <c r="N60">
-        <v>1.065949506699963</v>
+        <v>1.948187986453252</v>
       </c>
     </row>
     <row r="61">
@@ -3628,12 +3628,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3642,13 +3642,13 @@
         </is>
       </c>
       <c r="F61">
-        <v>403.1601487604381</v>
+        <v>207.8590288710201</v>
       </c>
       <c r="G61">
-        <v>403.1601487604381</v>
+        <v>277.9291553133515</v>
       </c>
       <c r="H61">
-        <v>403.1601487604381</v>
+        <v>290.1397218177643</v>
       </c>
       <c r="I61">
         <v>164.3218993535436</v>
@@ -3660,13 +3660,13 @@
         <v>233.7952059214437</v>
       </c>
       <c r="L61">
-        <v>0.4075846778476743</v>
+        <v>0.566354369970595</v>
       </c>
       <c r="M61">
-        <v>0.4979403714575847</v>
+        <v>0.7223053443397551</v>
       </c>
       <c r="N61">
-        <v>0.5799065374895652</v>
+        <v>1.124777726477869</v>
       </c>
     </row>
     <row r="62">
@@ -3682,12 +3682,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3696,13 +3696,13 @@
         </is>
       </c>
       <c r="F62">
-        <v>1460.122272378626</v>
+        <v>947.6581012701822</v>
       </c>
       <c r="G62">
-        <v>1460.122272378626</v>
+        <v>1219.073569482289</v>
       </c>
       <c r="H62">
-        <v>1460.122272378626</v>
+        <v>1329.566008048187</v>
       </c>
       <c r="I62">
         <v>1158.085593833882</v>
@@ -3714,13 +3714,13 @@
         <v>1796.050300226435</v>
       </c>
       <c r="L62">
-        <v>0.7931428865524337</v>
+        <v>0.8710252720238847</v>
       </c>
       <c r="M62">
-        <v>1.009480849028271</v>
+        <v>1.209086562209549</v>
       </c>
       <c r="N62">
-        <v>1.230068422489414</v>
+        <v>1.895251354701785</v>
       </c>
     </row>
     <row r="63">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3750,13 +3750,13 @@
         </is>
       </c>
       <c r="F63">
-        <v>1521.383821501497</v>
+        <v>815.203901135842</v>
       </c>
       <c r="G63">
-        <v>1521.383821501497</v>
+        <v>1080.108991825613</v>
       </c>
       <c r="H63">
-        <v>1521.383821501497</v>
+        <v>1092.768155409432</v>
       </c>
       <c r="I63">
         <v>741.5039391235581</v>
@@ -3768,13 +3768,13 @@
         <v>947.8540093860879</v>
       </c>
       <c r="L63">
-        <v>0.487387816699501</v>
+        <v>0.6785555888071574</v>
       </c>
       <c r="M63">
-        <v>0.5612405254487721</v>
+        <v>0.7905334201000892</v>
       </c>
       <c r="N63">
-        <v>0.6230209602535564</v>
+        <v>1.162720158803732</v>
       </c>
     </row>
     <row r="64">
@@ -3790,12 +3790,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3804,13 +3804,13 @@
         </is>
       </c>
       <c r="F64">
-        <v>2843.41951177902</v>
+        <v>1781.443155951778</v>
       </c>
       <c r="G64">
-        <v>2843.41951177902</v>
+        <v>2427.792915531335</v>
       </c>
       <c r="H64">
-        <v>2843.41951177902</v>
+        <v>2482.217822635579</v>
       </c>
       <c r="I64">
         <v>2134.132450420766</v>
@@ -3822,13 +3822,13 @@
         <v>2926.74126686664</v>
       </c>
       <c r="L64">
-        <v>0.7505513841977961</v>
+        <v>0.8597684018539428</v>
       </c>
       <c r="M64">
-        <v>0.9379760758768618</v>
+        <v>1.098553117388304</v>
       </c>
       <c r="N64">
-        <v>1.02930336334208</v>
+        <v>1.642904662485826</v>
       </c>
     </row>
     <row r="65">
@@ -3844,12 +3844,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3858,13 +3858,13 @@
         </is>
       </c>
       <c r="F65">
-        <v>91.7741476515581</v>
+        <v>60.95237154654587</v>
       </c>
       <c r="G65">
-        <v>91.7741476515581</v>
+        <v>80.3814713896458</v>
       </c>
       <c r="H65">
-        <v>91.7741476515581</v>
+        <v>91.60501225809563</v>
       </c>
       <c r="I65">
         <v>67.06126629136298</v>
@@ -3876,13 +3876,13 @@
         <v>90.55653820005834</v>
       </c>
       <c r="L65">
-        <v>0.7307206659763998</v>
+        <v>0.732069835899579</v>
       </c>
       <c r="M65">
-        <v>0.9395978092196079</v>
+        <v>1.072769465221664</v>
       </c>
       <c r="N65">
-        <v>0.9867325441569592</v>
+        <v>1.48569343410872</v>
       </c>
     </row>
     <row r="66">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3912,13 +3912,13 @@
         </is>
       </c>
       <c r="F66">
-        <v>213.1156637966965</v>
+        <v>183.7317715700675</v>
       </c>
       <c r="G66">
-        <v>213.1156637966965</v>
+        <v>240.8719346049047</v>
       </c>
       <c r="H66">
-        <v>213.1156637966965</v>
+        <v>277.8081531846856</v>
       </c>
       <c r="I66">
         <v>232.891646959818</v>
@@ -3930,13 +3930,13 @@
         <v>348.7957144384469</v>
       </c>
       <c r="L66">
-        <v>1.092794601817664</v>
+        <v>0.8383182577258368</v>
       </c>
       <c r="M66">
-        <v>1.318914510847743</v>
+        <v>1.166932718547978</v>
       </c>
       <c r="N66">
-        <v>1.636649827725397</v>
+        <v>1.898396295087325</v>
       </c>
     </row>
     <row r="67">
@@ -3952,12 +3952,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="F67">
-        <v>216.8830609070848</v>
+        <v>457.4511213649189</v>
       </c>
       <c r="G67">
-        <v>216.8830609070848</v>
+        <v>601.9073569482289</v>
       </c>
       <c r="H67">
-        <v>216.8830609070848</v>
+        <v>691.7174290460912</v>
       </c>
       <c r="I67">
         <v>499.9909230798828</v>
@@ -3984,13 +3984,13 @@
         <v>783.7998158729773</v>
       </c>
       <c r="L67">
-        <v>2.305347964883642</v>
+        <v>0.7228253938452762</v>
       </c>
       <c r="M67">
-        <v>3.144076881437344</v>
+        <v>1.132893642022694</v>
       </c>
       <c r="N67">
-        <v>3.613928227473543</v>
+        <v>1.713406699133923</v>
       </c>
     </row>
     <row r="68">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4020,13 +4020,13 @@
         </is>
       </c>
       <c r="F68">
-        <v>43.1678250796658</v>
+        <v>52.51201795869967</v>
       </c>
       <c r="G68">
-        <v>43.1678250796658</v>
+        <v>55.43275526344839</v>
       </c>
       <c r="H68">
-        <v>43.1678250796658</v>
+        <v>78.25921738872327</v>
       </c>
       <c r="I68">
         <v>29.07538456755402</v>
@@ -4038,13 +4038,13 @@
         <v>57.26652498448171</v>
       </c>
       <c r="L68">
-        <v>0.6735429573738237</v>
+        <v>0.3715266461601957</v>
       </c>
       <c r="M68">
-        <v>0.9137130373766776</v>
+        <v>0.7115468892540283</v>
       </c>
       <c r="N68">
-        <v>1.326602043971335</v>
+        <v>1.090541312457682</v>
       </c>
     </row>
     <row r="69">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="F69">
-        <v>18.06471834147334</v>
+        <v>23.99280358235838</v>
       </c>
       <c r="G69">
-        <v>18.06471834147334</v>
+        <v>28.06539509536785</v>
       </c>
       <c r="H69">
-        <v>18.06471834147334</v>
+        <v>44.73106115408496</v>
       </c>
       <c r="I69">
         <v>4.471269149416735</v>
@@ -4092,13 +4092,13 @@
         <v>18.47358585689362</v>
       </c>
       <c r="L69">
-        <v>0.2475139144102516</v>
+        <v>0.09995893310052643</v>
       </c>
       <c r="M69">
-        <v>0.480283624765897</v>
+        <v>0.3091418587173138</v>
       </c>
       <c r="N69">
-        <v>1.02263348410374</v>
+        <v>0.7699636181941248</v>
       </c>
     </row>
     <row r="70">
@@ -4114,12 +4114,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4128,13 +4128,13 @@
         </is>
       </c>
       <c r="F70">
-        <v>144.7556861112901</v>
+        <v>110.4236238598527</v>
       </c>
       <c r="G70">
-        <v>144.7556861112901</v>
+        <v>119.6185286103542</v>
       </c>
       <c r="H70">
-        <v>144.7556861112901</v>
+        <v>139.1732890276307</v>
       </c>
       <c r="I70">
         <v>100.4609539066659</v>
@@ -4146,13 +4146,13 @@
         <v>201.85053009163</v>
       </c>
       <c r="L70">
-        <v>0.6940035076026663</v>
+        <v>0.7218407685020714</v>
       </c>
       <c r="M70">
-        <v>0.958180172356444</v>
+        <v>1.159536318319879</v>
       </c>
       <c r="N70">
-        <v>1.394422115732606</v>
+        <v>1.827965095112386</v>
       </c>
     </row>
     <row r="71">
@@ -4168,12 +4168,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="F71">
-        <v>199.0325313067318</v>
+        <v>207.7579226818532</v>
       </c>
       <c r="G71">
-        <v>199.0325313067318</v>
+        <v>224.7956403269755</v>
       </c>
       <c r="H71">
-        <v>199.0325313067318</v>
+        <v>227.6611318209344</v>
       </c>
       <c r="I71">
         <v>148.1695837131677</v>
@@ -4200,13 +4200,13 @@
         <v>283.3540833555464</v>
       </c>
       <c r="L71">
-        <v>0.7444490744320659</v>
+        <v>0.650833906201036</v>
       </c>
       <c r="M71">
-        <v>1.166203889038016</v>
+        <v>1.032548993020385</v>
       </c>
       <c r="N71">
-        <v>1.42365713531958</v>
+        <v>1.363866560167027</v>
       </c>
     </row>
     <row r="72">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4236,13 +4236,13 @@
         </is>
       </c>
       <c r="F72">
-        <v>335.1418995984232</v>
+        <v>259.2523517209403</v>
       </c>
       <c r="G72">
-        <v>335.1418995984232</v>
+        <v>269.7308614800278</v>
       </c>
       <c r="H72">
-        <v>335.1418995984232</v>
+        <v>299.6045559800623</v>
       </c>
       <c r="I72">
         <v>276.4837971676466</v>
@@ -4254,13 +4254,13 @@
         <v>547.1374249429063</v>
       </c>
       <c r="L72">
-        <v>0.8249753238820261</v>
+        <v>0.9228290813643225</v>
       </c>
       <c r="M72">
-        <v>1.276781260180806</v>
+        <v>1.586406889299718</v>
       </c>
       <c r="N72">
-        <v>1.632554525705387</v>
+        <v>2.110443439802798</v>
       </c>
     </row>
     <row r="73">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Donax v.</t>
+          <t>A. alba</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Donax_vittatus</t>
+          <t>Abra_alba</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4290,13 +4290,13 @@
         </is>
       </c>
       <c r="F73">
-        <v>11919.15538909354</v>
+        <v>7848.070002814082</v>
       </c>
       <c r="G73">
-        <v>11919.16</v>
+        <v>10019.07</v>
       </c>
       <c r="H73">
-        <v>11919.15538909354</v>
+        <v>10606.24557935731</v>
       </c>
       <c r="I73">
         <v>8654.842999044244</v>
@@ -4308,13 +4308,13 @@
         <v>12596.2624355253</v>
       </c>
       <c r="L73">
-        <v>0.7261288838438789</v>
+        <v>0.8160138226375755</v>
       </c>
       <c r="M73">
-        <v>0.9643959809248304</v>
+        <v>1.147291115842089</v>
       </c>
       <c r="N73">
-        <v>1.056808307663422</v>
+        <v>1.605014026506983</v>
       </c>
     </row>
     <row r="74">
@@ -4330,12 +4330,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4344,13 +4344,13 @@
         </is>
       </c>
       <c r="F74">
-        <v>3479.114270247969</v>
+        <v>618.4057195844357</v>
       </c>
       <c r="G74">
-        <v>4388.472442665436</v>
+        <v>621.0241808602243</v>
       </c>
       <c r="H74">
-        <v>4996.155037808837</v>
+        <v>1106.20700616288</v>
       </c>
       <c r="I74">
         <v>772.5992435017812</v>
@@ -4362,13 +4362,13 @@
         <v>1190.784036563229</v>
       </c>
       <c r="L74">
-        <v>0.1546387647410998</v>
+        <v>0.6984219401951809</v>
       </c>
       <c r="M74">
-        <v>0.2208031222665721</v>
+        <v>1.560307065626856</v>
       </c>
       <c r="N74">
-        <v>0.3422664345193691</v>
+        <v>1.925570865294434</v>
       </c>
     </row>
     <row r="75">
@@ -4384,12 +4384,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4398,13 +4398,13 @@
         </is>
       </c>
       <c r="F75">
-        <v>341.4422671712341</v>
+        <v>106.9790419390537</v>
       </c>
       <c r="G75">
-        <v>507.2171882869218</v>
+        <v>110.4647932030552</v>
       </c>
       <c r="H75">
-        <v>578.0432477221427</v>
+        <v>187.262443652177</v>
       </c>
       <c r="I75">
         <v>124.1490551585352</v>
@@ -4416,13 +4416,13 @@
         <v>208.6931016505882</v>
       </c>
       <c r="L75">
-        <v>0.2147746827728916</v>
+        <v>0.6629682532026059</v>
       </c>
       <c r="M75">
-        <v>0.3298819750464493</v>
+        <v>1.514707111631734</v>
       </c>
       <c r="N75">
-        <v>0.6112105082348466</v>
+        <v>1.950784918876741</v>
       </c>
     </row>
     <row r="76">
@@ -4438,12 +4438,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4452,13 +4452,13 @@
         </is>
       </c>
       <c r="F76">
-        <v>3197.113093328398</v>
+        <v>710.5008090626461</v>
       </c>
       <c r="G76">
-        <v>4220.295954981889</v>
+        <v>718.8389117869915</v>
       </c>
       <c r="H76">
-        <v>4760.469349871833</v>
+        <v>1234.019926846996</v>
       </c>
       <c r="I76">
         <v>677.5498310319136</v>
@@ -4470,13 +4470,13 @@
         <v>1005.336428291718</v>
       </c>
       <c r="L76">
-        <v>0.1423283674854782</v>
+        <v>0.5490590680841752</v>
       </c>
       <c r="M76">
-        <v>0.1956769105128436</v>
+        <v>1.148817155526237</v>
       </c>
       <c r="N76">
-        <v>0.3144513187192571</v>
+        <v>1.4149687311659</v>
       </c>
     </row>
     <row r="77">
@@ -4492,12 +4492,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4506,13 +4506,13 @@
         </is>
       </c>
       <c r="F77">
-        <v>2108.938453900666</v>
+        <v>484.3162980676161</v>
       </c>
       <c r="G77">
-        <v>2892.322382581902</v>
+        <v>489.5534006466758</v>
       </c>
       <c r="H77">
-        <v>3260.446401503584</v>
+        <v>804.1662310018988</v>
       </c>
       <c r="I77">
         <v>730.4094819018429</v>
@@ -4524,13 +4524,13 @@
         <v>1117.260656539696</v>
       </c>
       <c r="L77">
-        <v>0.2240213124083279</v>
+        <v>0.908281713087898</v>
       </c>
       <c r="M77">
-        <v>0.331442234056897</v>
+        <v>1.958188403613171</v>
       </c>
       <c r="N77">
-        <v>0.5297739507159275</v>
+        <v>2.306882219321295</v>
       </c>
     </row>
     <row r="78">
@@ -4546,12 +4546,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4560,13 +4560,13 @@
         </is>
       </c>
       <c r="F78">
-        <v>453.4260550164893</v>
+        <v>156.1846624139561</v>
       </c>
       <c r="G78">
-        <v>759.2723591275329</v>
+        <v>159.6475280911156</v>
       </c>
       <c r="H78">
-        <v>842.1917478281185</v>
+        <v>239.7960091172758</v>
       </c>
       <c r="I78">
         <v>202.8582750800992</v>
@@ -4578,13 +4578,13 @@
         <v>287.6133459859888</v>
       </c>
       <c r="L78">
-        <v>0.2408694642321527</v>
+        <v>0.8459618482678263</v>
       </c>
       <c r="M78">
-        <v>0.3368521148554965</v>
+        <v>1.602044848307706</v>
       </c>
       <c r="N78">
-        <v>0.6343114666746034</v>
+        <v>1.841495455063894</v>
       </c>
     </row>
     <row r="79">
@@ -4600,12 +4600,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4614,13 +4614,13 @@
         </is>
       </c>
       <c r="F79">
-        <v>724.8992576904103</v>
+        <v>205.9374682386839</v>
       </c>
       <c r="G79">
-        <v>1193.92389797033</v>
+        <v>212.4513333668671</v>
       </c>
       <c r="H79">
-        <v>1348.039718198168</v>
+        <v>318.4351498143598</v>
       </c>
       <c r="I79">
         <v>164.3218993535436</v>
@@ -4632,13 +4632,13 @@
         <v>233.7952059214437</v>
       </c>
       <c r="L79">
-        <v>0.1218969271715387</v>
+        <v>0.5160294001756383</v>
       </c>
       <c r="M79">
-        <v>0.1681428058957041</v>
+        <v>0.9449209428307385</v>
       </c>
       <c r="N79">
-        <v>0.3225209619697152</v>
+        <v>1.135272798685047</v>
       </c>
     </row>
     <row r="80">
@@ -4654,12 +4654,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4668,13 +4668,13 @@
         </is>
       </c>
       <c r="F80">
-        <v>3237.161708131974</v>
+        <v>853.7709578744921</v>
       </c>
       <c r="G80">
-        <v>4867.972327731208</v>
+        <v>883.1571977801186</v>
       </c>
       <c r="H80">
-        <v>5704.902135026216</v>
+        <v>1346.473883159149</v>
       </c>
       <c r="I80">
         <v>1158.085593833882</v>
@@ -4686,13 +4686,13 @@
         <v>1796.050300226435</v>
       </c>
       <c r="L80">
-        <v>0.2029983278282056</v>
+        <v>0.8600876766482372</v>
       </c>
       <c r="M80">
-        <v>0.3027883833293745</v>
+        <v>1.66897294718402</v>
       </c>
       <c r="N80">
-        <v>0.5548225458476888</v>
+        <v>2.103667598037999</v>
       </c>
     </row>
     <row r="81">
@@ -4708,12 +4708,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4722,13 +4722,13 @@
         </is>
       </c>
       <c r="F81">
-        <v>2998.766559793364</v>
+        <v>682.0089381511586</v>
       </c>
       <c r="G81">
-        <v>4413.184231346278</v>
+        <v>689.2405041108842</v>
       </c>
       <c r="H81">
-        <v>4938.905410024832</v>
+        <v>1142.2821694748</v>
       </c>
       <c r="I81">
         <v>741.5039391235581</v>
@@ -4740,13 +4740,13 @@
         <v>947.8540093860879</v>
       </c>
       <c r="L81">
-        <v>0.1501352784806279</v>
+        <v>0.649142531450428</v>
       </c>
       <c r="M81">
-        <v>0.1934798573156969</v>
+        <v>1.238845149546511</v>
       </c>
       <c r="N81">
-        <v>0.3160812922535063</v>
+        <v>1.389797048636345</v>
       </c>
     </row>
     <row r="82">
@@ -4762,12 +4762,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4776,13 +4776,13 @@
         </is>
       </c>
       <c r="F82">
-        <v>5618.395126460911</v>
+        <v>1506.249833039021</v>
       </c>
       <c r="G82">
-        <v>8706.714228991126</v>
+        <v>1532.57983667353</v>
       </c>
       <c r="H82">
-        <v>9847.662658649853</v>
+        <v>2259.821806293568</v>
       </c>
       <c r="I82">
         <v>2134.132450420766</v>
@@ -4794,13 +4794,13 @@
         <v>2926.74126686664</v>
       </c>
       <c r="L82">
-        <v>0.2167146179145582</v>
+        <v>0.9443808553741893</v>
       </c>
       <c r="M82">
-        <v>0.3063221561642122</v>
+        <v>1.740241788329311</v>
       </c>
       <c r="N82">
-        <v>0.5209212241201389</v>
+        <v>1.943064956868161</v>
       </c>
     </row>
     <row r="83">
@@ -4816,12 +4816,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4830,13 +4830,13 @@
         </is>
       </c>
       <c r="F83">
-        <v>187.8315816035676</v>
+        <v>63.72946522278195</v>
       </c>
       <c r="G83">
-        <v>260.8161322306694</v>
+        <v>64.41689046365944</v>
       </c>
       <c r="H83">
-        <v>301.24927098577</v>
+        <v>91.8366337251303</v>
       </c>
       <c r="I83">
         <v>67.06126629136298</v>
@@ -4848,13 +4848,13 @@
         <v>90.55653820005834</v>
       </c>
       <c r="L83">
-        <v>0.2226105512950129</v>
+        <v>0.730223480229897</v>
       </c>
       <c r="M83">
-        <v>0.3306190738237661</v>
+        <v>1.338636302617675</v>
       </c>
       <c r="N83">
-        <v>0.4821156135030828</v>
+        <v>1.420952425749938</v>
       </c>
     </row>
     <row r="84">
@@ -4870,12 +4870,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4884,13 +4884,13 @@
         </is>
       </c>
       <c r="F84">
-        <v>599.9163732470366</v>
+        <v>200.4672835581389</v>
       </c>
       <c r="G84">
-        <v>740.5651298658524</v>
+        <v>204.3855882965571</v>
       </c>
       <c r="H84">
-        <v>820.4676522885334</v>
+        <v>264.1774908775595</v>
       </c>
       <c r="I84">
         <v>232.891646959818</v>
@@ -4902,13 +4902,13 @@
         <v>348.7957144384469</v>
       </c>
       <c r="L84">
-        <v>0.2838523204543317</v>
+        <v>0.8815726358297428</v>
       </c>
       <c r="M84">
-        <v>0.3795497926311056</v>
+        <v>1.375250299265582</v>
       </c>
       <c r="N84">
-        <v>0.5814072260615197</v>
+        <v>1.739913407552561</v>
       </c>
     </row>
     <row r="85">
@@ -4924,12 +4924,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="F85">
-        <v>1275.611277477278</v>
+        <v>385.1642039878765</v>
       </c>
       <c r="G85">
-        <v>1474.982113013738</v>
+        <v>395.9487182055946</v>
       </c>
       <c r="H85">
-        <v>1687.628985088215</v>
+        <v>556.831688036081</v>
       </c>
       <c r="I85">
         <v>499.9909230798828</v>
@@ -4956,13 +4956,13 @@
         <v>783.7998158729773</v>
       </c>
       <c r="L85">
-        <v>0.2962682719352249</v>
+        <v>0.8979211022334722</v>
       </c>
       <c r="M85">
-        <v>0.4623086692082358</v>
+        <v>1.722185188182023</v>
       </c>
       <c r="N85">
-        <v>0.6144503656498432</v>
+        <v>2.034975752569282</v>
       </c>
     </row>
     <row r="86">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4992,13 +4992,13 @@
         </is>
       </c>
       <c r="F86">
-        <v>110.8406982886948</v>
+        <v>52.45477077152431</v>
       </c>
       <c r="G86">
-        <v>126.7853996293395</v>
+        <v>53.86691012441251</v>
       </c>
       <c r="H86">
-        <v>134.4531173703064</v>
+        <v>66.70679765659054</v>
       </c>
       <c r="I86">
         <v>29.07538456755402</v>
@@ -5010,13 +5010,13 @@
         <v>57.26652498448171</v>
       </c>
       <c r="L86">
-        <v>0.2162492408969258</v>
+        <v>0.435868391063162</v>
       </c>
       <c r="M86">
-        <v>0.3111005264470456</v>
+        <v>0.732230686322789</v>
       </c>
       <c r="N86">
-        <v>0.5166561188141</v>
+        <v>1.091731488712739</v>
       </c>
     </row>
     <row r="87">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5046,13 +5046,13 @@
         </is>
       </c>
       <c r="F87">
-        <v>56.68425598969418</v>
+        <v>25.54615433178311</v>
       </c>
       <c r="G87">
-        <v>59.06125296068936</v>
+        <v>27.86340166001563</v>
       </c>
       <c r="H87">
-        <v>74.98971663192548</v>
+        <v>31.16514457797946</v>
       </c>
       <c r="I87">
         <v>4.471269149416735</v>
@@ -5064,13 +5064,13 @@
         <v>18.47358585689362</v>
       </c>
       <c r="L87">
-        <v>0.05962509728318104</v>
+        <v>0.1434701879283444</v>
       </c>
       <c r="M87">
-        <v>0.1469015296914306</v>
+        <v>0.3113829571594717</v>
       </c>
       <c r="N87">
-        <v>0.3259032959743235</v>
+        <v>0.7231454729728072</v>
       </c>
     </row>
     <row r="88">
@@ -5086,12 +5086,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5100,13 +5100,13 @@
         </is>
       </c>
       <c r="F88">
-        <v>339.6017943230838</v>
+        <v>113.6311238901382</v>
       </c>
       <c r="G88">
-        <v>356.2971464738249</v>
+        <v>113.826139712706</v>
       </c>
       <c r="H88">
-        <v>373.1875696009629</v>
+        <v>174.2428780738609</v>
       </c>
       <c r="I88">
         <v>100.4609539066659</v>
@@ -5118,13 +5118,13 @@
         <v>201.85053009163</v>
       </c>
       <c r="L88">
-        <v>0.2691969456916409</v>
+        <v>0.5765570163738967</v>
       </c>
       <c r="M88">
-        <v>0.3892875080263403</v>
+        <v>1.218542846289713</v>
       </c>
       <c r="N88">
-        <v>0.5943741566323922</v>
+        <v>1.776366572654732</v>
       </c>
     </row>
     <row r="89">
@@ -5140,12 +5140,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5154,13 +5154,13 @@
         </is>
       </c>
       <c r="F89">
-        <v>815.2480760019552</v>
+        <v>169.463214694038</v>
       </c>
       <c r="G89">
-        <v>823.8351487497587</v>
+        <v>172.3058503434584</v>
       </c>
       <c r="H89">
-        <v>881.2374202620683</v>
+        <v>274.6806793055314</v>
       </c>
       <c r="I89">
         <v>148.1695837131677</v>
@@ -5172,13 +5172,13 @@
         <v>283.3540833555464</v>
       </c>
       <c r="L89">
-        <v>0.168138097981704</v>
+        <v>0.5394248481101085</v>
       </c>
       <c r="M89">
-        <v>0.2817463085997753</v>
+        <v>1.347095943592861</v>
       </c>
       <c r="N89">
-        <v>0.347567926495624</v>
+        <v>1.672068382906201</v>
       </c>
     </row>
     <row r="90">
@@ -5194,12 +5194,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5208,13 +5208,13 @@
         </is>
       </c>
       <c r="F90">
-        <v>738.218433821816</v>
+        <v>273.0969912128556</v>
       </c>
       <c r="G90">
-        <v>755.2099087405041</v>
+        <v>277.5737469170146</v>
       </c>
       <c r="H90">
-        <v>777.8337871978738</v>
+        <v>423.3317329670879</v>
       </c>
       <c r="I90">
         <v>276.4837971676466</v>
@@ -5226,13 +5226,13 @@
         <v>547.1374249429063</v>
       </c>
       <c r="L90">
-        <v>0.3554535708247805</v>
+        <v>0.6531138009187277</v>
       </c>
       <c r="M90">
-        <v>0.5666012746340894</v>
+        <v>1.541582738502258</v>
       </c>
       <c r="N90">
-        <v>0.7411592556830801</v>
+        <v>2.003454606046757</v>
       </c>
     </row>
     <row r="91">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Limecola b.</t>
+          <t>C. edule</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Limecola_balthica</t>
+          <t>Cerastoderma_edule</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5262,13 +5262,13 @@
         </is>
       </c>
       <c r="F91">
-        <v>27762.66865945869</v>
+        <v>7037.853035783039</v>
       </c>
       <c r="G91">
-        <v>38852.78</v>
+        <v>7149.14</v>
       </c>
       <c r="H91">
-        <v>44064.12299732314</v>
+        <v>11174.89305931812</v>
       </c>
       <c r="I91">
         <v>8654.842999044244</v>
@@ -5280,13 +5280,13 @@
         <v>12596.2624355253</v>
       </c>
       <c r="L91">
-        <v>0.1964147340358962</v>
+        <v>0.7744900065801931</v>
       </c>
       <c r="M91">
-        <v>0.2958550198981901</v>
+        <v>1.607856329572508</v>
       </c>
       <c r="N91">
-        <v>0.4537122345849766</v>
+        <v>1.789787648517418</v>
       </c>
     </row>
     <row r="92">
@@ -5302,12 +5302,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5316,13 +5316,13 @@
         </is>
       </c>
       <c r="F92">
-        <v>1190.578931809114</v>
+        <v>1104.610985261482</v>
       </c>
       <c r="G92">
-        <v>1190.578931809114</v>
+        <v>1104.610985261482</v>
       </c>
       <c r="H92">
-        <v>1190.578931809114</v>
+        <v>1104.610985261482</v>
       </c>
       <c r="I92">
         <v>772.5992435017812</v>
@@ -5334,13 +5334,13 @@
         <v>1190.784036563229</v>
       </c>
       <c r="L92">
-        <v>0.6489273603454395</v>
+        <v>0.6994310701327061</v>
       </c>
       <c r="M92">
-        <v>0.8138800304898197</v>
+        <v>0.8772214202558929</v>
       </c>
       <c r="N92">
-        <v>1.000172273125818</v>
+        <v>1.078012125944364</v>
       </c>
     </row>
     <row r="93">
@@ -5356,12 +5356,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5370,13 +5370,13 @@
         </is>
       </c>
       <c r="F93">
-        <v>278.4449760363406</v>
+        <v>231.9354231929473</v>
       </c>
       <c r="G93">
-        <v>278.4449760363406</v>
+        <v>231.9354231929473</v>
       </c>
       <c r="H93">
-        <v>278.4449760363406</v>
+        <v>231.9354231929473</v>
       </c>
       <c r="I93">
         <v>124.1490551585352</v>
@@ -5388,13 +5388,13 @@
         <v>208.6931016505882</v>
       </c>
       <c r="L93">
-        <v>0.4458656677013709</v>
+        <v>0.535274230427732</v>
       </c>
       <c r="M93">
-        <v>0.600915161880166</v>
+        <v>0.7214154937876883</v>
       </c>
       <c r="N93">
-        <v>0.7494949437455505</v>
+        <v>0.8997896861876775</v>
       </c>
     </row>
     <row r="94">
@@ -5410,12 +5410,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5424,13 +5424,13 @@
         </is>
       </c>
       <c r="F94">
-        <v>1165.159333450705</v>
+        <v>1130.026714443769</v>
       </c>
       <c r="G94">
-        <v>1165.159333450705</v>
+        <v>1130.026714443769</v>
       </c>
       <c r="H94">
-        <v>1165.159333450705</v>
+        <v>1130.026714443769</v>
       </c>
       <c r="I94">
         <v>677.5498310319136</v>
@@ -5442,13 +5442,13 @@
         <v>1005.336428291718</v>
       </c>
       <c r="L94">
-        <v>0.5815083067011101</v>
+        <v>0.5995874454750593</v>
       </c>
       <c r="M94">
-        <v>0.7087566912200726</v>
+        <v>0.7307919922293131</v>
       </c>
       <c r="N94">
-        <v>0.8628317170273527</v>
+        <v>0.8896572226494422</v>
       </c>
     </row>
     <row r="95">
@@ -5464,12 +5464,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5478,13 +5478,13 @@
         </is>
       </c>
       <c r="F95">
-        <v>1033.298248299404</v>
+        <v>831.013663998392</v>
       </c>
       <c r="G95">
-        <v>1033.298248299404</v>
+        <v>831.013663998392</v>
       </c>
       <c r="H95">
-        <v>1033.298248299404</v>
+        <v>831.013663998392</v>
       </c>
       <c r="I95">
         <v>730.4094819018429</v>
@@ -5496,13 +5496,13 @@
         <v>1117.260656539696</v>
       </c>
       <c r="L95">
-        <v>0.7068718863154433</v>
+        <v>0.8789379928935276</v>
       </c>
       <c r="M95">
-        <v>0.9277454923333446</v>
+        <v>1.153576449613671</v>
       </c>
       <c r="N95">
-        <v>1.08125670238818</v>
+        <v>1.344455217696466</v>
       </c>
     </row>
     <row r="96">
@@ -5518,12 +5518,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5532,13 +5532,13 @@
         </is>
       </c>
       <c r="F96">
-        <v>389.970337847485</v>
+        <v>401.5401287919325</v>
       </c>
       <c r="G96">
-        <v>389.970337847485</v>
+        <v>401.5401287919325</v>
       </c>
       <c r="H96">
-        <v>389.970337847485</v>
+        <v>401.5401287919325</v>
       </c>
       <c r="I96">
         <v>202.8582750800992</v>
@@ -5550,13 +5550,13 @@
         <v>287.6133459859888</v>
       </c>
       <c r="L96">
-        <v>0.5201889871927536</v>
+        <v>0.5052005030989443</v>
       </c>
       <c r="M96">
-        <v>0.6558511637966133</v>
+        <v>0.6369537726974254</v>
       </c>
       <c r="N96">
-        <v>0.737526211797351</v>
+        <v>0.7162754737647214</v>
       </c>
     </row>
     <row r="97">
@@ -5572,12 +5572,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5586,13 +5586,13 @@
         </is>
       </c>
       <c r="F97">
-        <v>485.940747497716</v>
+        <v>433.9597965507548</v>
       </c>
       <c r="G97">
-        <v>485.940747497716</v>
+        <v>433.9597965507548</v>
       </c>
       <c r="H97">
-        <v>485.940747497716</v>
+        <v>433.9597965507548</v>
       </c>
       <c r="I97">
         <v>164.3218993535436</v>
@@ -5604,13 +5604,13 @@
         <v>233.7952059214437</v>
       </c>
       <c r="L97">
-        <v>0.3381521310976622</v>
+        <v>0.3786569646765076</v>
       </c>
       <c r="M97">
-        <v>0.4131156221502318</v>
+        <v>0.4625997980142117</v>
       </c>
       <c r="N97">
-        <v>0.481118751875284</v>
+        <v>0.5387485379514864</v>
       </c>
     </row>
     <row r="98">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5640,13 +5640,13 @@
         </is>
       </c>
       <c r="F98">
-        <v>1989.041742376852</v>
+        <v>1433.74386915152</v>
       </c>
       <c r="G98">
-        <v>1989.041742376852</v>
+        <v>1433.74386915152</v>
       </c>
       <c r="H98">
-        <v>1989.041742376852</v>
+        <v>1433.74386915152</v>
       </c>
       <c r="I98">
         <v>1158.085593833882</v>
@@ -5658,13 +5658,13 @@
         <v>1796.050300226435</v>
       </c>
       <c r="L98">
-        <v>0.5822329261174783</v>
+        <v>0.807735341542719</v>
       </c>
       <c r="M98">
-        <v>0.7410430056860017</v>
+        <v>1.028053547721984</v>
       </c>
       <c r="N98">
-        <v>0.9029726535955961</v>
+        <v>1.252699550366221</v>
       </c>
     </row>
     <row r="99">
@@ -5680,12 +5680,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5694,13 +5694,13 @@
         </is>
       </c>
       <c r="F99">
-        <v>1415.631206050954</v>
+        <v>1102.675779204034</v>
       </c>
       <c r="G99">
-        <v>1415.631206050954</v>
+        <v>1102.675779204034</v>
       </c>
       <c r="H99">
-        <v>1415.631206050954</v>
+        <v>1102.675779204034</v>
       </c>
       <c r="I99">
         <v>741.5039391235581</v>
@@ -5712,13 +5712,13 @@
         <v>947.8540093860879</v>
       </c>
       <c r="L99">
-        <v>0.5237973957864762</v>
+        <v>0.672458716431418</v>
       </c>
       <c r="M99">
-        <v>0.603167160867198</v>
+        <v>0.7743547754400859</v>
       </c>
       <c r="N99">
-        <v>0.6695628108045332</v>
+        <v>0.8595944766922297</v>
       </c>
     </row>
     <row r="100">
@@ -5734,12 +5734,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5748,13 +5748,13 @@
         </is>
       </c>
       <c r="F100">
-        <v>3299.692822274697</v>
+        <v>2322.608754480231</v>
       </c>
       <c r="G100">
-        <v>3299.692822274697</v>
+        <v>2322.608754480231</v>
       </c>
       <c r="H100">
-        <v>3299.692822274697</v>
+        <v>2322.608754480231</v>
       </c>
       <c r="I100">
         <v>2134.132450420766</v>
@@ -5766,13 +5766,13 @@
         <v>2926.74126686664</v>
       </c>
       <c r="L100">
-        <v>0.646767006920834</v>
+        <v>0.9188514623068127</v>
       </c>
       <c r="M100">
-        <v>0.8082750787364524</v>
+        <v>1.148303376789364</v>
       </c>
       <c r="N100">
-        <v>0.8869738562055128</v>
+        <v>1.26010946149284</v>
       </c>
     </row>
     <row r="101">
@@ -5788,12 +5788,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F101">
-        <v>180.5778204882251</v>
+        <v>43.2780432447659</v>
       </c>
       <c r="G101">
-        <v>180.5778204882251</v>
+        <v>43.2780432447659</v>
       </c>
       <c r="H101">
-        <v>180.5778204882251</v>
+        <v>43.2780432447659</v>
       </c>
       <c r="I101">
         <v>67.06126629136298</v>
@@ -5820,13 +5820,13 @@
         <v>90.55653820005834</v>
       </c>
       <c r="L101">
-        <v>0.3713704490953021</v>
+        <v>1.549544786766057</v>
       </c>
       <c r="M101">
-        <v>0.4775270176772549</v>
+        <v>1.992483523081411</v>
       </c>
       <c r="N101">
-        <v>0.5014820643821164</v>
+        <v>2.092436057885088</v>
       </c>
     </row>
     <row r="102">
@@ -5842,12 +5842,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5856,13 +5856,13 @@
         </is>
       </c>
       <c r="F102">
-        <v>347.1731640928389</v>
+        <v>91.74856375457006</v>
       </c>
       <c r="G102">
-        <v>347.1731640928389</v>
+        <v>91.74856375457006</v>
       </c>
       <c r="H102">
-        <v>347.1731640928389</v>
+        <v>91.74856375457006</v>
       </c>
       <c r="I102">
         <v>232.891646959818</v>
@@ -5874,13 +5874,13 @@
         <v>348.7957144384469</v>
       </c>
       <c r="L102">
-        <v>0.6708227220510038</v>
+        <v>2.538368312585356</v>
       </c>
       <c r="M102">
-        <v>0.8096286537724646</v>
+        <v>3.063604812630228</v>
       </c>
       <c r="N102">
-        <v>1.004673605316954</v>
+        <v>3.8016476788834</v>
       </c>
     </row>
     <row r="103">
@@ -5896,12 +5896,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5910,13 +5910,13 @@
         </is>
       </c>
       <c r="F103">
-        <v>601.0328968394422</v>
+        <v>149.9450390828956</v>
       </c>
       <c r="G103">
-        <v>601.0328968394422</v>
+        <v>149.9450390828956</v>
       </c>
       <c r="H103">
-        <v>601.0328968394422</v>
+        <v>149.9450390828956</v>
       </c>
       <c r="I103">
         <v>499.9909230798828</v>
@@ -5928,13 +5928,13 @@
         <v>783.7998158729773</v>
       </c>
       <c r="L103">
-        <v>0.8318861175637923</v>
+        <v>3.334494599741096</v>
       </c>
       <c r="M103">
-        <v>1.134541921680357</v>
+        <v>4.547646403935731</v>
       </c>
       <c r="N103">
-        <v>1.304088045753607</v>
+        <v>5.227247401227204</v>
       </c>
     </row>
     <row r="104">
@@ -5950,12 +5950,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5964,13 +5964,13 @@
         </is>
       </c>
       <c r="F104">
-        <v>183.4691257886101</v>
+        <v>87.3653646137514</v>
       </c>
       <c r="G104">
-        <v>183.4691257886101</v>
+        <v>87.3653646137514</v>
       </c>
       <c r="H104">
-        <v>183.4691257886101</v>
+        <v>87.3653646137514</v>
       </c>
       <c r="I104">
         <v>29.07538456755402</v>
@@ -5982,13 +5982,13 @@
         <v>57.26652498448171</v>
       </c>
       <c r="L104">
-        <v>0.1584756260355989</v>
+        <v>0.3328021887861214</v>
       </c>
       <c r="M104">
-        <v>0.2149844253137834</v>
+        <v>0.4514718704015824</v>
       </c>
       <c r="N104">
-        <v>0.3121316719547855</v>
+        <v>0.6554831567138896</v>
       </c>
     </row>
     <row r="105">
@@ -6004,12 +6004,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -6018,13 +6018,13 @@
         </is>
       </c>
       <c r="F105">
-        <v>106.2718606638141</v>
+        <v>19.02768076251596</v>
       </c>
       <c r="G105">
-        <v>106.2718606638141</v>
+        <v>19.02768076251596</v>
       </c>
       <c r="H105">
-        <v>106.2718606638141</v>
+        <v>19.02768076251596</v>
       </c>
       <c r="I105">
         <v>4.471269149416735</v>
@@ -6036,13 +6036,13 @@
         <v>18.47358585689362</v>
       </c>
       <c r="L105">
-        <v>0.04207387657925159</v>
+        <v>0.2349876059632564</v>
       </c>
       <c r="M105">
-        <v>0.0816414462984186</v>
+        <v>0.4559771899531586</v>
       </c>
       <c r="N105">
-        <v>0.1738332776099021</v>
+        <v>0.9708795353181513</v>
       </c>
     </row>
     <row r="106">
@@ -6058,12 +6058,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -6072,13 +6072,13 @@
         </is>
       </c>
       <c r="F106">
-        <v>237.225819629027</v>
+        <v>180.0645517573649</v>
       </c>
       <c r="G106">
-        <v>237.225819629027</v>
+        <v>180.0645517573649</v>
       </c>
       <c r="H106">
-        <v>237.225819629027</v>
+        <v>180.0645517573649</v>
       </c>
       <c r="I106">
         <v>100.4609539066659</v>
@@ -6090,13 +6090,13 @@
         <v>201.85053009163</v>
       </c>
       <c r="L106">
-        <v>0.4234823766812837</v>
+        <v>0.5579163301505116</v>
       </c>
       <c r="M106">
-        <v>0.584683524266427</v>
+        <v>0.770290581427658</v>
       </c>
       <c r="N106">
-        <v>0.8508792609813017</v>
+        <v>1.120989823491864</v>
       </c>
     </row>
     <row r="107">
@@ -6112,12 +6112,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6126,13 +6126,13 @@
         </is>
       </c>
       <c r="F107">
-        <v>345.2821378934838</v>
+        <v>280.7137705661996</v>
       </c>
       <c r="G107">
-        <v>345.2821378934838</v>
+        <v>280.7137705661996</v>
       </c>
       <c r="H107">
-        <v>345.2821378934838</v>
+        <v>280.7137705661996</v>
       </c>
       <c r="I107">
         <v>148.1695837131677</v>
@@ -6144,13 +6144,13 @@
         <v>283.3540833555464</v>
       </c>
       <c r="L107">
-        <v>0.4291261187651606</v>
+        <v>0.5278315467542247</v>
       </c>
       <c r="M107">
-        <v>0.672240138082659</v>
+        <v>0.8268654280366097</v>
       </c>
       <c r="N107">
-        <v>0.8206450674924818</v>
+        <v>1.009405711675709</v>
       </c>
     </row>
     <row r="108">
@@ -6166,12 +6166,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6180,13 +6180,13 @@
         </is>
       </c>
       <c r="F108">
-        <v>519.7714291273762</v>
+        <v>439.5464172287062</v>
       </c>
       <c r="G108">
-        <v>519.7714291273762</v>
+        <v>439.5464172287062</v>
       </c>
       <c r="H108">
-        <v>519.7714291273762</v>
+        <v>439.5464172287062</v>
       </c>
       <c r="I108">
         <v>276.4837971676466</v>
@@ -6198,13 +6198,13 @@
         <v>547.1374249429063</v>
       </c>
       <c r="L108">
-        <v>0.5319334262597396</v>
+        <v>0.6290207048230487</v>
       </c>
       <c r="M108">
-        <v>0.8232520545176045</v>
+        <v>0.9735101462242521</v>
       </c>
       <c r="N108">
-        <v>1.05265005785615</v>
+        <v>1.244777351144277</v>
       </c>
     </row>
     <row r="109">
@@ -6220,12 +6220,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Nucula n.</t>
+          <t>C. gibba</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Nucula_nitidosa</t>
+          <t>Corbula_gibba</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6234,13 +6234,13 @@
         </is>
       </c>
       <c r="F109">
-        <v>15105.17395433452</v>
+        <v>11146.60047995663</v>
       </c>
       <c r="G109">
-        <v>15105.17</v>
+        <v>11146.6</v>
       </c>
       <c r="H109">
-        <v>15105.17395433452</v>
+        <v>11146.60047995663</v>
       </c>
       <c r="I109">
         <v>8654.842999044244</v>
@@ -6252,13 +6252,13 @@
         <v>12596.2624355253</v>
       </c>
       <c r="L109">
-        <v>0.5729720839501277</v>
+        <v>0.7764558364325553</v>
       </c>
       <c r="M109">
-        <v>0.7609838220953489</v>
+        <v>1.03123732797445</v>
       </c>
       <c r="N109">
-        <v>0.8339038314689995</v>
+        <v>1.130054177340921</v>
       </c>
     </row>
     <row r="110">
@@ -6274,12 +6274,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="F110">
-        <v>772.6225486117112</v>
+        <v>1058.623239888162</v>
       </c>
       <c r="G110">
-        <v>894.722968276412</v>
+        <v>1058.623239888162</v>
       </c>
       <c r="H110">
-        <v>1006.669471663523</v>
+        <v>1058.623239888162</v>
       </c>
       <c r="I110">
         <v>772.5992435017812</v>
@@ -6306,13 +6306,13 @@
         <v>1190.784036563229</v>
       </c>
       <c r="L110">
-        <v>0.767480553696597</v>
+        <v>0.7298151168336358</v>
       </c>
       <c r="M110">
-        <v>1.083003847758587</v>
+        <v>0.9153288732105549</v>
       </c>
       <c r="N110">
-        <v>1.541223510371128</v>
+        <v>1.124842145623998</v>
       </c>
     </row>
     <row r="111">
@@ -6328,12 +6328,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6342,13 +6342,13 @@
         </is>
       </c>
       <c r="F111">
-        <v>137.2098708522342</v>
+        <v>163.1407918640199</v>
       </c>
       <c r="G111">
-        <v>143.4687988942314</v>
+        <v>163.1407918640199</v>
       </c>
       <c r="H111">
-        <v>155.3550526283206</v>
+        <v>163.1407918640199</v>
       </c>
       <c r="I111">
         <v>124.1490551585352</v>
@@ -6360,13 +6360,13 @@
         <v>208.6931016505882</v>
       </c>
       <c r="L111">
-        <v>0.799131106830209</v>
+        <v>0.7609933342852424</v>
       </c>
       <c r="M111">
-        <v>1.16625920854715</v>
+        <v>1.025628268306198</v>
       </c>
       <c r="N111">
-        <v>1.520977320030689</v>
+        <v>1.279220845173639</v>
       </c>
     </row>
     <row r="112">
@@ -6382,12 +6382,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="F112">
-        <v>841.8361538439626</v>
+        <v>1129.266831255854</v>
       </c>
       <c r="G112">
-        <v>923.2200108001848</v>
+        <v>1129.266831255854</v>
       </c>
       <c r="H112">
-        <v>1041.595574090698</v>
+        <v>1129.266831255854</v>
       </c>
       <c r="I112">
         <v>677.5498310319136</v>
@@ -6414,13 +6414,13 @@
         <v>1005.336428291718</v>
       </c>
       <c r="L112">
-        <v>0.6504922331523995</v>
+        <v>0.5999909076213745</v>
       </c>
       <c r="M112">
-        <v>0.8944936897597645</v>
+        <v>0.7312837418613642</v>
       </c>
       <c r="N112">
-        <v>1.19421864183569</v>
+        <v>0.890255872629931</v>
       </c>
     </row>
     <row r="113">
@@ -6436,12 +6436,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="F113">
-        <v>618.7944792650655</v>
+        <v>844.1623134453016</v>
       </c>
       <c r="G113">
-        <v>653.8074640573184</v>
+        <v>844.1623134453016</v>
       </c>
       <c r="H113">
-        <v>725.3442833041213</v>
+        <v>844.1623134453016</v>
       </c>
       <c r="I113">
         <v>730.4094819018429</v>
@@ -6468,13 +6468,13 @@
         <v>1117.260656539696</v>
       </c>
       <c r="L113">
-        <v>1.006983164704419</v>
+        <v>0.8652476784006191</v>
       </c>
       <c r="M113">
-        <v>1.466238678504396</v>
+        <v>1.135608373919465</v>
       </c>
       <c r="N113">
-        <v>1.80554399558744</v>
+        <v>1.323514019454139</v>
       </c>
     </row>
     <row r="114">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6504,13 +6504,13 @@
         </is>
       </c>
       <c r="F114">
-        <v>168.076921762157</v>
+        <v>269.8189212323961</v>
       </c>
       <c r="G114">
-        <v>184.9889992539026</v>
+        <v>269.8189212323961</v>
       </c>
       <c r="H114">
-        <v>221.0914691753729</v>
+        <v>269.8189212323961</v>
       </c>
       <c r="I114">
         <v>202.8582750800992</v>
@@ -6522,13 +6522,13 @@
         <v>287.6133459859888</v>
       </c>
       <c r="L114">
-        <v>0.9175309922030016</v>
+        <v>0.7518311694137141</v>
       </c>
       <c r="M114">
-        <v>1.382582212753042</v>
+        <v>0.9479042416863799</v>
       </c>
       <c r="N114">
-        <v>1.71120069888587</v>
+        <v>1.065949506699963</v>
       </c>
     </row>
     <row r="115">
@@ -6544,12 +6544,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6558,13 +6558,13 @@
         </is>
       </c>
       <c r="F115">
-        <v>221.2797259859317</v>
+        <v>403.1601487604381</v>
       </c>
       <c r="G115">
-        <v>241.192110610292</v>
+        <v>403.1601487604381</v>
       </c>
       <c r="H115">
-        <v>283.2051909483672</v>
+        <v>403.1601487604381</v>
       </c>
       <c r="I115">
         <v>164.3218993535436</v>
@@ -6576,13 +6576,13 @@
         <v>233.7952059214437</v>
       </c>
       <c r="L115">
-        <v>0.5802220602075832</v>
+        <v>0.4075846778476743</v>
       </c>
       <c r="M115">
-        <v>0.8323228886828329</v>
+        <v>0.4979403714575847</v>
       </c>
       <c r="N115">
-        <v>1.056559541908993</v>
+        <v>0.5799065374895652</v>
       </c>
     </row>
     <row r="116">
@@ -6598,12 +6598,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6612,13 +6612,13 @@
         </is>
       </c>
       <c r="F116">
-        <v>869.4510698105782</v>
+        <v>1460.122272378626</v>
       </c>
       <c r="G116">
-        <v>1038.069409884365</v>
+        <v>1460.122272378626</v>
       </c>
       <c r="H116">
-        <v>1296.500378370726</v>
+        <v>1460.122272378626</v>
       </c>
       <c r="I116">
         <v>1158.085593833882</v>
@@ -6630,13 +6630,13 @@
         <v>1796.050300226435</v>
       </c>
       <c r="L116">
-        <v>0.8932396882824013</v>
+        <v>0.7931428865524337</v>
       </c>
       <c r="M116">
-        <v>1.419910323116117</v>
+        <v>1.009480849028271</v>
       </c>
       <c r="N116">
-        <v>2.06572901292505</v>
+        <v>1.230068422489414</v>
       </c>
     </row>
     <row r="117">
@@ -6652,12 +6652,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6666,13 +6666,13 @@
         </is>
       </c>
       <c r="F117">
-        <v>779.2335633873854</v>
+        <v>1521.383821501497</v>
       </c>
       <c r="G117">
-        <v>819.1824939992071</v>
+        <v>1521.383821501497</v>
       </c>
       <c r="H117">
-        <v>945.9049048754582</v>
+        <v>1521.383821501497</v>
       </c>
       <c r="I117">
         <v>741.5039391235581</v>
@@ -6684,13 +6684,13 @@
         <v>947.8540093860879</v>
       </c>
       <c r="L117">
-        <v>0.7839096037050232</v>
+        <v>0.487387816699501</v>
       </c>
       <c r="M117">
-        <v>1.042334597777169</v>
+        <v>0.5612405254487721</v>
       </c>
       <c r="N117">
-        <v>1.216392688818096</v>
+        <v>0.6230209602535564</v>
       </c>
     </row>
     <row r="118">
@@ -6706,12 +6706,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6720,13 +6720,13 @@
         </is>
       </c>
       <c r="F118">
-        <v>1644.727493214505</v>
+        <v>2843.41951177902</v>
       </c>
       <c r="G118">
-        <v>1940.014870850954</v>
+        <v>2843.41951177902</v>
       </c>
       <c r="H118">
-        <v>2378.869702987929</v>
+        <v>2843.41951177902</v>
       </c>
       <c r="I118">
         <v>2134.132450420766</v>
@@ -6738,13 +6738,13 @@
         <v>2926.74126686664</v>
       </c>
       <c r="L118">
-        <v>0.8971203625571564</v>
+        <v>0.7505513841977961</v>
       </c>
       <c r="M118">
-        <v>1.374762387548261</v>
+        <v>0.9379760758768618</v>
       </c>
       <c r="N118">
-        <v>1.779468804979073</v>
+        <v>1.02930336334208</v>
       </c>
     </row>
     <row r="119">
@@ -6760,12 +6760,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="F119">
-        <v>67.86042049334752</v>
+        <v>91.7741476515581</v>
       </c>
       <c r="G119">
-        <v>79.39496541035743</v>
+        <v>91.7741476515581</v>
       </c>
       <c r="H119">
-        <v>92.71009747438532</v>
+        <v>91.7741476515581</v>
       </c>
       <c r="I119">
         <v>67.06126629136298</v>
@@ -6792,13 +6792,13 @@
         <v>90.55653820005834</v>
       </c>
       <c r="L119">
-        <v>0.7233437146357353</v>
+        <v>0.7307206659763998</v>
       </c>
       <c r="M119">
-        <v>1.086098943814788</v>
+        <v>0.9395978092196079</v>
       </c>
       <c r="N119">
-        <v>1.334452948297539</v>
+        <v>0.9867325441569592</v>
       </c>
     </row>
     <row r="120">
@@ -6814,12 +6814,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="F120">
-        <v>173.6051268993269</v>
+        <v>213.1156637966965</v>
       </c>
       <c r="G120">
-        <v>207.8610010729948</v>
+        <v>213.1156637966965</v>
       </c>
       <c r="H120">
-        <v>232.7508717114007</v>
+        <v>213.1156637966965</v>
       </c>
       <c r="I120">
         <v>232.891646959818</v>
@@ -6846,13 +6846,13 @@
         <v>348.7957144384469</v>
       </c>
       <c r="L120">
-        <v>1.000604832314406</v>
+        <v>1.092794601817664</v>
       </c>
       <c r="M120">
-        <v>1.352256267503034</v>
+        <v>1.318914510847743</v>
       </c>
       <c r="N120">
-        <v>2.009132568076244</v>
+        <v>1.636649827725397</v>
       </c>
     </row>
     <row r="121">
@@ -6868,12 +6868,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6882,13 +6882,13 @@
         </is>
       </c>
       <c r="F121">
-        <v>402.7249268806773</v>
+        <v>216.8830609070848</v>
       </c>
       <c r="G121">
-        <v>500.9046989974942</v>
+        <v>216.8830609070848</v>
       </c>
       <c r="H121">
-        <v>563.7943788420048</v>
+        <v>216.8830609070848</v>
       </c>
       <c r="I121">
         <v>499.9909230798828</v>
@@ -6900,13 +6900,13 @@
         <v>783.7998158729773</v>
       </c>
       <c r="L121">
-        <v>0.8868320470076876</v>
+        <v>2.305347964883642</v>
       </c>
       <c r="M121">
-        <v>1.361330846242958</v>
+        <v>3.144076881437344</v>
       </c>
       <c r="N121">
-        <v>1.946241127769099</v>
+        <v>3.613928227473543</v>
       </c>
     </row>
     <row r="122">
@@ -6922,12 +6922,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6936,13 +6936,13 @@
         </is>
       </c>
       <c r="F122">
-        <v>67.25617141680613</v>
+        <v>43.1678250796658</v>
       </c>
       <c r="G122">
-        <v>78.58965095920577</v>
+        <v>43.1678250796658</v>
       </c>
       <c r="H122">
-        <v>87.89884992100977</v>
+        <v>43.1678250796658</v>
       </c>
       <c r="I122">
         <v>29.07538456755402</v>
@@ -6954,13 +6954,13 @@
         <v>57.26652498448171</v>
       </c>
       <c r="L122">
-        <v>0.3307823093667618</v>
+        <v>0.6735429573738237</v>
       </c>
       <c r="M122">
-        <v>0.5018854784195517</v>
+        <v>0.9137130373766776</v>
       </c>
       <c r="N122">
-        <v>0.8514687020999803</v>
+        <v>1.326602043971335</v>
       </c>
     </row>
     <row r="123">
@@ -6976,12 +6976,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="F123">
-        <v>45.27136484315988</v>
+        <v>18.06471834147334</v>
       </c>
       <c r="G123">
-        <v>54.53807209783064</v>
+        <v>18.06471834147334</v>
       </c>
       <c r="H123">
-        <v>59.20255514752546</v>
+        <v>18.06471834147334</v>
       </c>
       <c r="I123">
         <v>4.471269149416735</v>
@@ -7008,13 +7008,13 @@
         <v>18.47358585689362</v>
       </c>
       <c r="L123">
-        <v>0.07552493533893739</v>
+        <v>0.2475139144102516</v>
       </c>
       <c r="M123">
-        <v>0.1590849854364932</v>
+        <v>0.480283624765897</v>
       </c>
       <c r="N123">
-        <v>0.4080633734126269</v>
+        <v>1.02263348410374</v>
       </c>
     </row>
     <row r="124">
@@ -7030,12 +7030,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -7044,13 +7044,13 @@
         </is>
       </c>
       <c r="F124">
-        <v>143.0140859870187</v>
+        <v>144.7556861112901</v>
       </c>
       <c r="G124">
-        <v>182.8632609200307</v>
+        <v>144.7556861112901</v>
       </c>
       <c r="H124">
-        <v>194.5159653515473</v>
+        <v>144.7556861112901</v>
       </c>
       <c r="I124">
         <v>100.4609539066659</v>
@@ -7062,13 +7062,13 @@
         <v>201.85053009163</v>
       </c>
       <c r="L124">
-        <v>0.5164663667843588</v>
+        <v>0.6940035076026663</v>
       </c>
       <c r="M124">
-        <v>0.7585013390324917</v>
+        <v>0.958180172356444</v>
       </c>
       <c r="N124">
-        <v>1.411403140456751</v>
+        <v>1.394422115732606</v>
       </c>
     </row>
     <row r="125">
@@ -7084,12 +7084,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -7098,13 +7098,13 @@
         </is>
       </c>
       <c r="F125">
-        <v>225.6275616693888</v>
+        <v>199.0325313067318</v>
       </c>
       <c r="G125">
-        <v>288.989180353492</v>
+        <v>199.0325313067318</v>
       </c>
       <c r="H125">
-        <v>310.7970960073976</v>
+        <v>199.0325313067318</v>
       </c>
       <c r="I125">
         <v>148.1695837131677</v>
@@ -7116,13 +7116,13 @@
         <v>283.3540833555464</v>
       </c>
       <c r="L125">
-        <v>0.4767405668090315</v>
+        <v>0.7444490744320659</v>
       </c>
       <c r="M125">
-        <v>0.803187551073957</v>
+        <v>1.166203889038016</v>
       </c>
       <c r="N125">
-        <v>1.255848714842489</v>
+        <v>1.42365713531958</v>
       </c>
     </row>
     <row r="126">
@@ -7138,12 +7138,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="F126">
-        <v>299.1753945349601</v>
+        <v>335.1418995984232</v>
       </c>
       <c r="G126">
-        <v>399.1731754454836</v>
+        <v>335.1418995984232</v>
       </c>
       <c r="H126">
-        <v>438.0536752466281</v>
+        <v>335.1418995984232</v>
       </c>
       <c r="I126">
         <v>276.4837971676466</v>
@@ -7170,13 +7170,13 @@
         <v>547.1374249429063</v>
       </c>
       <c r="L126">
-        <v>0.631164199254769</v>
+        <v>0.8249753238820261</v>
       </c>
       <c r="M126">
-        <v>1.071973076425082</v>
+        <v>1.276781260180806</v>
       </c>
       <c r="N126">
-        <v>1.828818261586584</v>
+        <v>1.632554525705387</v>
       </c>
     </row>
     <row r="127">
@@ -7192,12 +7192,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Scrobicularia p.</t>
+          <t>D. vittatus</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Scrobicularia_plana</t>
+          <t>Donax_vittatus</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="F127">
-        <v>7878.51246412174</v>
+        <v>11919.15538909354</v>
       </c>
       <c r="G127">
-        <v>8934.43</v>
+        <v>11919.16</v>
       </c>
       <c r="H127">
-        <v>10534.9322738615</v>
+        <v>11919.15538909354</v>
       </c>
       <c r="I127">
         <v>8654.842999044244</v>
@@ -7224,13 +7224,13 @@
         <v>12596.2624355253</v>
       </c>
       <c r="L127">
-        <v>0.8215376021465276</v>
+        <v>0.7261288838438789</v>
       </c>
       <c r="M127">
-        <v>1.286572282730963</v>
+        <v>0.9643959809248304</v>
       </c>
       <c r="N127">
-        <v>1.598812274891726</v>
+        <v>1.056808307663422</v>
       </c>
     </row>
     <row r="128">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Spisula s.</t>
+          <t>S. subtruncata</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -8866,7 +8866,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Corophium v.</t>
+          <t>C. volutator</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -9298,7 +9298,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -9406,7 +9406,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -9730,7 +9730,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -9946,7 +9946,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Crangon c.</t>
+          <t>C. crangon</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -10162,12 +10162,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -10176,13 +10176,13 @@
         </is>
       </c>
       <c r="F182">
-        <v>691.3754033624226</v>
+        <v>699.263700076753</v>
       </c>
       <c r="G182">
-        <v>957.2619633053791</v>
+        <v>784.5792852124447</v>
       </c>
       <c r="H182">
-        <v>1223.148523248336</v>
+        <v>855.8762837530059</v>
       </c>
       <c r="I182">
         <v>772.5992435017812</v>
@@ -10194,13 +10194,13 @@
         <v>1190.784036563229</v>
       </c>
       <c r="L182">
-        <v>0.6316479387556113</v>
+        <v>0.9026996753712394</v>
       </c>
       <c r="M182">
-        <v>1.012249994740696</v>
+        <v>1.235042060865729</v>
       </c>
       <c r="N182">
-        <v>1.722340758395499</v>
+        <v>1.702911271430972</v>
       </c>
     </row>
     <row r="183">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -10230,13 +10230,13 @@
         </is>
       </c>
       <c r="F183">
-        <v>155.4192860370968</v>
+        <v>105.9449060216996</v>
       </c>
       <c r="G183">
-        <v>200.7123485715279</v>
+        <v>119.9172400753553</v>
       </c>
       <c r="H183">
-        <v>246.0054111059589</v>
+        <v>129.8152924006826</v>
       </c>
       <c r="I183">
         <v>124.1490551585352</v>
@@ -10248,13 +10248,13 @@
         <v>208.6931016505882</v>
       </c>
       <c r="L183">
-        <v>0.5046598552462817</v>
+        <v>0.9563515427392156</v>
       </c>
       <c r="M183">
-        <v>0.8336398285428266</v>
+        <v>1.395310697147904</v>
       </c>
       <c r="N183">
-        <v>1.342774805957966</v>
+        <v>1.969826672061456</v>
       </c>
     </row>
     <row r="184">
@@ -10270,12 +10270,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -10284,13 +10284,13 @@
         </is>
       </c>
       <c r="F184">
-        <v>1068.340520445342</v>
+        <v>519.3141312051874</v>
       </c>
       <c r="G184">
-        <v>1502.252490213437</v>
+        <v>702.3354581791817</v>
       </c>
       <c r="H184">
-        <v>1936.164459981532</v>
+        <v>894.3648330876036</v>
       </c>
       <c r="I184">
         <v>677.5498310319136</v>
@@ -10302,13 +10302,13 @@
         <v>1005.336428291718</v>
       </c>
       <c r="L184">
-        <v>0.3499443590852692</v>
+        <v>0.7575765570889204</v>
       </c>
       <c r="M184">
-        <v>0.5497174937638991</v>
+        <v>1.175812020172877</v>
       </c>
       <c r="N184">
-        <v>0.9410262075172808</v>
+        <v>1.935892685913638</v>
       </c>
     </row>
     <row r="185">
@@ -10324,12 +10324,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10338,13 +10338,13 @@
         </is>
       </c>
       <c r="F185">
-        <v>752.6928403382134</v>
+        <v>523.4753841000055</v>
       </c>
       <c r="G185">
-        <v>1002.190007652472</v>
+        <v>587.9323665790093</v>
       </c>
       <c r="H185">
-        <v>1251.68717496673</v>
+        <v>648.7843843026697</v>
       </c>
       <c r="I185">
         <v>730.4094819018429</v>
@@ -10356,13 +10356,13 @@
         <v>1117.260656539696</v>
       </c>
       <c r="L185">
-        <v>0.5835399583136717</v>
+        <v>1.125812364745656</v>
       </c>
       <c r="M185">
-        <v>0.9565429557028061</v>
+        <v>1.630523928583351</v>
       </c>
       <c r="N185">
-        <v>1.484351380355456</v>
+        <v>2.134313647738311</v>
       </c>
     </row>
     <row r="186">
@@ -10378,12 +10378,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10392,13 +10392,13 @@
         </is>
       </c>
       <c r="F186">
-        <v>266.9088705496164</v>
+        <v>176.7716871057146</v>
       </c>
       <c r="G186">
-        <v>367.6953468300248</v>
+        <v>200.2151148655986</v>
       </c>
       <c r="H186">
-        <v>468.4818231104332</v>
+        <v>211.5846111235439</v>
       </c>
       <c r="I186">
         <v>202.8582750800992</v>
@@ -10410,13 +10410,13 @@
         <v>287.6133459859888</v>
       </c>
       <c r="L186">
-        <v>0.4330120509975054</v>
+        <v>0.958757227205199</v>
       </c>
       <c r="M186">
-        <v>0.6955826396183994</v>
+        <v>1.277438519539951</v>
       </c>
       <c r="N186">
-        <v>1.077571327598584</v>
+        <v>1.627032873279009</v>
       </c>
     </row>
     <row r="187">
@@ -10432,12 +10432,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10446,13 +10446,13 @@
         </is>
       </c>
       <c r="F187">
-        <v>269.7957982390456</v>
+        <v>190.2147818667678</v>
       </c>
       <c r="G187">
-        <v>389.4024584574169</v>
+        <v>238.7973031957845</v>
       </c>
       <c r="H187">
-        <v>509.009118675788</v>
+        <v>296.983084995838</v>
       </c>
       <c r="I187">
         <v>164.3218993535436</v>
@@ -10464,13 +10464,13 @@
         <v>233.7952059214437</v>
       </c>
       <c r="L187">
-        <v>0.3228270247516096</v>
+        <v>0.5533039006441948</v>
       </c>
       <c r="M187">
-        <v>0.5155327345028065</v>
+        <v>0.8406699386637441</v>
       </c>
       <c r="N187">
-        <v>0.866563554537997</v>
+        <v>1.229111658026667</v>
       </c>
     </row>
     <row r="188">
@@ -10486,12 +10486,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10500,13 +10500,13 @@
         </is>
       </c>
       <c r="F188">
-        <v>1600.225902572477</v>
+        <v>936.0558400347139</v>
       </c>
       <c r="G188">
-        <v>2252.775853326325</v>
+        <v>1105.181381423482</v>
       </c>
       <c r="H188">
-        <v>2905.325804080174</v>
+        <v>1249.171024447865</v>
       </c>
       <c r="I188">
         <v>1158.085593833882</v>
@@ -10518,13 +10518,13 @@
         <v>1796.050300226435</v>
       </c>
       <c r="L188">
-        <v>0.3986078229875262</v>
+        <v>0.9270832985785574</v>
       </c>
       <c r="M188">
-        <v>0.6542885609455944</v>
+        <v>1.333686484391717</v>
       </c>
       <c r="N188">
-        <v>1.122372970803157</v>
+        <v>1.918742689709438</v>
       </c>
     </row>
     <row r="189">
@@ -10540,12 +10540,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10554,13 +10554,13 @@
         </is>
       </c>
       <c r="F189">
-        <v>1204.013193220598</v>
+        <v>766.1101012295434</v>
       </c>
       <c r="G189">
-        <v>1686.21187681925</v>
+        <v>903.5173063179022</v>
       </c>
       <c r="H189">
-        <v>2168.410560417902</v>
+        <v>1068.564875253704</v>
       </c>
       <c r="I189">
         <v>741.5039391235581</v>
@@ -10572,13 +10572,13 @@
         <v>947.8540093860879</v>
       </c>
       <c r="L189">
-        <v>0.3419573546905497</v>
+        <v>0.6939250543374887</v>
       </c>
       <c r="M189">
-        <v>0.5063789830489311</v>
+        <v>0.9450425015858303</v>
       </c>
       <c r="N189">
-        <v>0.7872455341213386</v>
+        <v>1.237229489423075</v>
       </c>
     </row>
     <row r="190">
@@ -10594,12 +10594,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10608,13 +10608,13 @@
         </is>
       </c>
       <c r="F190">
-        <v>3033.800801495967</v>
+        <v>1635.144562920463</v>
       </c>
       <c r="G190">
-        <v>4355.203786199069</v>
+        <v>1896.189097400932</v>
       </c>
       <c r="H190">
-        <v>5676.606770902172</v>
+        <v>2191.869593954618</v>
       </c>
       <c r="I190">
         <v>2134.132450420766</v>
@@ -10626,13 +10626,13 @@
         <v>2926.74126686664</v>
       </c>
       <c r="L190">
-        <v>0.3759521377031357</v>
+        <v>0.9736584951526784</v>
       </c>
       <c r="M190">
-        <v>0.6123845419545383</v>
+        <v>1.406536657860692</v>
       </c>
       <c r="N190">
-        <v>0.964711086312412</v>
+        <v>1.789897562108705</v>
       </c>
     </row>
     <row r="191">
@@ -10648,12 +10648,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10662,13 +10662,13 @@
         </is>
       </c>
       <c r="F191">
-        <v>103.8773132558323</v>
+        <v>54.64768071096209</v>
       </c>
       <c r="G191">
-        <v>137.211742353675</v>
+        <v>77.97153306938247</v>
       </c>
       <c r="H191">
-        <v>170.5461714515176</v>
+        <v>102.5076774178069</v>
       </c>
       <c r="I191">
         <v>67.06126629136298</v>
@@ -10680,13 +10680,13 @@
         <v>90.55653820005834</v>
       </c>
       <c r="L191">
-        <v>0.3932147272530652</v>
+        <v>0.6542072553066507</v>
       </c>
       <c r="M191">
-        <v>0.6284504999151866</v>
+        <v>1.105926543725502</v>
       </c>
       <c r="N191">
-        <v>0.8717643473992521</v>
+        <v>1.65709755696719</v>
       </c>
     </row>
     <row r="192">
@@ -10702,12 +10702,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10716,13 +10716,13 @@
         </is>
       </c>
       <c r="F192">
-        <v>328.8400551896771</v>
+        <v>204.0859223312115</v>
       </c>
       <c r="G192">
-        <v>441.4423417561713</v>
+        <v>253.2361751656952</v>
       </c>
       <c r="H192">
-        <v>554.0446283226656</v>
+        <v>284.4787750091829</v>
       </c>
       <c r="I192">
         <v>232.891646959818</v>
@@ -10734,13 +10734,13 @@
         <v>348.7957144384469</v>
       </c>
       <c r="L192">
-        <v>0.4203481724295071</v>
+        <v>0.8186608893837523</v>
       </c>
       <c r="M192">
-        <v>0.6367339851274759</v>
+        <v>1.109957300873374</v>
       </c>
       <c r="N192">
-        <v>1.060685001519232</v>
+        <v>1.709063077228745</v>
       </c>
     </row>
     <row r="193">
@@ -10756,12 +10756,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10770,13 +10770,13 @@
         </is>
       </c>
       <c r="F193">
-        <v>840.6842130249261</v>
+        <v>457.1140505251275</v>
       </c>
       <c r="G193">
-        <v>1178.159060312996</v>
+        <v>587.7117968826404</v>
       </c>
       <c r="H193">
-        <v>1515.633907601065</v>
+        <v>700.792689494603</v>
       </c>
       <c r="I193">
         <v>499.9909230798828</v>
@@ -10788,13 +10788,13 @@
         <v>783.7998158729773</v>
       </c>
       <c r="L193">
-        <v>0.3298889795038071</v>
+        <v>0.7134648100288629</v>
       </c>
       <c r="M193">
-        <v>0.5787817967398872</v>
+        <v>1.160257495919382</v>
       </c>
       <c r="N193">
-        <v>0.9323355948992204</v>
+        <v>1.714670146263404</v>
       </c>
     </row>
     <row r="194">
@@ -10810,12 +10810,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10824,13 +10824,13 @@
         </is>
       </c>
       <c r="F194">
-        <v>76.40217953287853</v>
+        <v>49.07825420524543</v>
       </c>
       <c r="G194">
-        <v>84.91606630315661</v>
+        <v>57.41137489678762</v>
       </c>
       <c r="H194">
-        <v>93.42995307343469</v>
+        <v>69.93329523081442</v>
       </c>
       <c r="I194">
         <v>29.07538456755402</v>
@@ -10842,13 +10842,13 @@
         <v>57.26652498448171</v>
       </c>
       <c r="L194">
-        <v>0.311199819876835</v>
+        <v>0.4157588237704357</v>
       </c>
       <c r="M194">
-        <v>0.4644940149449709</v>
+        <v>0.6870242115155049</v>
       </c>
       <c r="N194">
-        <v>0.7495404625183227</v>
+        <v>1.166841117554689</v>
       </c>
     </row>
     <row r="195">
@@ -10864,12 +10864,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10878,13 +10878,13 @@
         </is>
       </c>
       <c r="F195">
-        <v>44.13668971399667</v>
+        <v>35.05574960760885</v>
       </c>
       <c r="G195">
-        <v>49.81371926655159</v>
+        <v>40.87574306543338</v>
       </c>
       <c r="H195">
-        <v>55.4907488191065</v>
+        <v>44.9053991606334</v>
       </c>
       <c r="I195">
         <v>4.471269149416735</v>
@@ -10896,13 +10896,13 @@
         <v>18.47358585689362</v>
       </c>
       <c r="L195">
-        <v>0.08057683928527549</v>
+        <v>0.09957085858255774</v>
       </c>
       <c r="M195">
-        <v>0.1741726683565184</v>
+        <v>0.2122576314155089</v>
       </c>
       <c r="N195">
-        <v>0.4185539508422911</v>
+        <v>0.5269773450482408</v>
       </c>
     </row>
     <row r="196">
@@ -10918,12 +10918,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10932,13 +10932,13 @@
         </is>
       </c>
       <c r="F196">
-        <v>220.2787989695474</v>
+        <v>119.7204093529225</v>
       </c>
       <c r="G196">
-        <v>292.8193917201451</v>
+        <v>132.103542923859</v>
       </c>
       <c r="H196">
-        <v>365.3599844707428</v>
+        <v>148.5464112035422</v>
       </c>
       <c r="I196">
         <v>100.4609539066659</v>
@@ -10950,13 +10950,13 @@
         <v>201.85053009163</v>
       </c>
       <c r="L196">
-        <v>0.2749643041839754</v>
+        <v>0.6762933758730236</v>
       </c>
       <c r="M196">
-        <v>0.473677741944947</v>
+        <v>1.049949344262746</v>
       </c>
       <c r="N196">
-        <v>0.9163411596389495</v>
+        <v>1.686016036719329</v>
       </c>
     </row>
     <row r="197">
@@ -10972,12 +10972,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10986,13 +10986,13 @@
         </is>
       </c>
       <c r="F197">
-        <v>230.3484457160349</v>
+        <v>171.4636643425667</v>
       </c>
       <c r="G197">
-        <v>301.8118877317137</v>
+        <v>224.9860802846153</v>
       </c>
       <c r="H197">
-        <v>373.2753297473924</v>
+        <v>271.0709764115982</v>
       </c>
       <c r="I197">
         <v>148.1695837131677</v>
@@ -11004,13 +11004,13 @@
         <v>283.3540833555464</v>
       </c>
       <c r="L197">
-        <v>0.396944485491283</v>
+        <v>0.5466080717110222</v>
       </c>
       <c r="M197">
-        <v>0.7690635176746932</v>
+        <v>1.03167498967652</v>
       </c>
       <c r="N197">
-        <v>1.230110680689614</v>
+        <v>1.652560526114933</v>
       </c>
     </row>
     <row r="198">
@@ -11026,12 +11026,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -11040,13 +11040,13 @@
         </is>
       </c>
       <c r="F198">
-        <v>414.1807734886748</v>
+        <v>239.5355822554056</v>
       </c>
       <c r="G198">
-        <v>550.5356806270255</v>
+        <v>290.2224904551869</v>
       </c>
       <c r="H198">
-        <v>686.8905877653762</v>
+        <v>327.1075711934434</v>
       </c>
       <c r="I198">
         <v>276.4837971676466</v>
@@ -11058,13 +11058,13 @@
         <v>547.1374249429063</v>
       </c>
       <c r="L198">
-        <v>0.4025150469263473</v>
+        <v>0.8452381464571509</v>
       </c>
       <c r="M198">
-        <v>0.7772482546840732</v>
+        <v>1.474396061578612</v>
       </c>
       <c r="N198">
-        <v>1.321011162189707</v>
+        <v>2.284159287698306</v>
       </c>
     </row>
     <row r="199">
@@ -11080,12 +11080,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Hediste d.</t>
+          <t>L. koreni</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Hediste_diversicolor</t>
+          <t>Lagis_koreni</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -11094,13 +11094,13 @@
         </is>
       </c>
       <c r="F199">
-        <v>12093.62915589518</v>
+        <v>7511.344884259203</v>
       </c>
       <c r="G199">
-        <v>16844.06</v>
+        <v>8817.040000000001</v>
       </c>
       <c r="H199">
-        <v>21594.48876093411</v>
+        <v>10162.89699983114</v>
       </c>
       <c r="I199">
         <v>8654.842999044244</v>
@@ -11112,13 +11112,13 @@
         <v>12596.2624355253</v>
       </c>
       <c r="L199">
-        <v>0.4007894372892699</v>
+        <v>0.8516117991934826</v>
       </c>
       <c r="M199">
-        <v>0.6824239524200223</v>
+        <v>1.30370169580721</v>
       </c>
       <c r="N199">
-        <v>1.041561823432059</v>
+        <v>1.676964994900189</v>
       </c>
     </row>
     <row r="200">
@@ -11134,12 +11134,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -11148,13 +11148,13 @@
         </is>
       </c>
       <c r="F200">
-        <v>699.263700076753</v>
+        <v>1006.426659756361</v>
       </c>
       <c r="G200">
-        <v>784.5792852124447</v>
+        <v>1006.426659756361</v>
       </c>
       <c r="H200">
-        <v>855.8762837530059</v>
+        <v>1006.426659756361</v>
       </c>
       <c r="I200">
         <v>772.5992435017812</v>
@@ -11166,13 +11166,13 @@
         <v>1190.784036563229</v>
       </c>
       <c r="L200">
-        <v>0.9026996753712394</v>
+        <v>0.7676657171311562</v>
       </c>
       <c r="M200">
-        <v>1.235042060865729</v>
+        <v>0.9628008240122673</v>
       </c>
       <c r="N200">
-        <v>1.702911271430972</v>
+        <v>1.183180140370583</v>
       </c>
     </row>
     <row r="201">
@@ -11188,12 +11188,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -11202,13 +11202,13 @@
         </is>
       </c>
       <c r="F201">
-        <v>105.9449060216996</v>
+        <v>275.6600493010215</v>
       </c>
       <c r="G201">
-        <v>119.9172400753553</v>
+        <v>275.6600493010215</v>
       </c>
       <c r="H201">
-        <v>129.8152924006826</v>
+        <v>275.6600493010215</v>
       </c>
       <c r="I201">
         <v>124.1490551585352</v>
@@ -11220,13 +11220,13 @@
         <v>208.6931016505882</v>
       </c>
       <c r="L201">
-        <v>0.9563515427392156</v>
+        <v>0.4503701405892304</v>
       </c>
       <c r="M201">
-        <v>1.395310697147904</v>
+        <v>0.6069860622671538</v>
       </c>
       <c r="N201">
-        <v>1.969826672061456</v>
+        <v>0.7570669096946102</v>
       </c>
     </row>
     <row r="202">
@@ -11242,12 +11242,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -11256,13 +11256,13 @@
         </is>
       </c>
       <c r="F202">
-        <v>519.3141312051874</v>
+        <v>1049.724226723234</v>
       </c>
       <c r="G202">
-        <v>702.3354581791817</v>
+        <v>1049.724226723234</v>
       </c>
       <c r="H202">
-        <v>894.3648330876036</v>
+        <v>1049.724226723234</v>
       </c>
       <c r="I202">
         <v>677.5498310319136</v>
@@ -11274,13 +11274,13 @@
         <v>1005.336428291718</v>
       </c>
       <c r="L202">
-        <v>0.7575765570889204</v>
+        <v>0.6454550764698639</v>
       </c>
       <c r="M202">
-        <v>1.175812020172877</v>
+        <v>0.7866965941126535</v>
       </c>
       <c r="N202">
-        <v>1.935892685913638</v>
+        <v>0.9577148004194637</v>
       </c>
     </row>
     <row r="203">
@@ -11296,12 +11296,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -11310,13 +11310,13 @@
         </is>
       </c>
       <c r="F203">
-        <v>523.4753841000055</v>
+        <v>1030.673147302482</v>
       </c>
       <c r="G203">
-        <v>587.9323665790093</v>
+        <v>1030.673147302482</v>
       </c>
       <c r="H203">
-        <v>648.7843843026697</v>
+        <v>1030.673147302482</v>
       </c>
       <c r="I203">
         <v>730.4094819018429</v>
@@ -11328,13 +11328,13 @@
         <v>1117.260656539696</v>
       </c>
       <c r="L203">
-        <v>1.125812364745656</v>
+        <v>0.7086722728864134</v>
       </c>
       <c r="M203">
-        <v>1.630523928583351</v>
+        <v>0.9301084389408005</v>
       </c>
       <c r="N203">
-        <v>2.134313647738311</v>
+        <v>1.084010638546114</v>
       </c>
     </row>
     <row r="204">
@@ -11350,12 +11350,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -11364,13 +11364,13 @@
         </is>
       </c>
       <c r="F204">
-        <v>176.7716871057146</v>
+        <v>272.4744578391707</v>
       </c>
       <c r="G204">
-        <v>200.2151148655986</v>
+        <v>272.4744578391707</v>
       </c>
       <c r="H204">
-        <v>211.5846111235439</v>
+        <v>272.4744578391707</v>
       </c>
       <c r="I204">
         <v>202.8582750800992</v>
@@ -11382,13 +11382,13 @@
         <v>287.6133459859888</v>
       </c>
       <c r="L204">
-        <v>0.958757227205199</v>
+        <v>0.7445038213447414</v>
       </c>
       <c r="M204">
-        <v>1.277438519539951</v>
+        <v>0.9386659650659679</v>
       </c>
       <c r="N204">
-        <v>1.627032873279009</v>
+        <v>1.05556076069249</v>
       </c>
     </row>
     <row r="205">
@@ -11404,12 +11404,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11418,13 +11418,13 @@
         </is>
       </c>
       <c r="F205">
-        <v>190.2147818667678</v>
+        <v>304.7599909230174</v>
       </c>
       <c r="G205">
-        <v>238.7973031957845</v>
+        <v>304.7599909230174</v>
       </c>
       <c r="H205">
-        <v>296.983084995838</v>
+        <v>304.7599909230174</v>
       </c>
       <c r="I205">
         <v>164.3218993535436</v>
@@ -11436,13 +11436,13 @@
         <v>233.7952059214437</v>
       </c>
       <c r="L205">
-        <v>0.5533039006441948</v>
+        <v>0.5391846182166721</v>
       </c>
       <c r="M205">
-        <v>0.8406699386637441</v>
+        <v>0.658714136401773</v>
       </c>
       <c r="N205">
-        <v>1.229111658026667</v>
+        <v>0.7671453369366338</v>
       </c>
     </row>
     <row r="206">
@@ -11458,12 +11458,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11472,13 +11472,13 @@
         </is>
       </c>
       <c r="F206">
-        <v>936.0558400347139</v>
+        <v>1251.524726893696</v>
       </c>
       <c r="G206">
-        <v>1105.181381423482</v>
+        <v>1251.524726893696</v>
       </c>
       <c r="H206">
-        <v>1249.171024447865</v>
+        <v>1251.524726893696</v>
       </c>
       <c r="I206">
         <v>1158.085593833882</v>
@@ -11490,13 +11490,13 @@
         <v>1796.050300226435</v>
       </c>
       <c r="L206">
-        <v>0.9270832985785574</v>
+        <v>0.9253397627294736</v>
       </c>
       <c r="M206">
-        <v>1.333686484391717</v>
+        <v>1.177735796610483</v>
       </c>
       <c r="N206">
-        <v>1.918742689709438</v>
+        <v>1.43508974423882</v>
       </c>
     </row>
     <row r="207">
@@ -11512,12 +11512,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11526,13 +11526,13 @@
         </is>
       </c>
       <c r="F207">
-        <v>766.1101012295434</v>
+        <v>943.9905098309872</v>
       </c>
       <c r="G207">
-        <v>903.5173063179022</v>
+        <v>943.9905098309872</v>
       </c>
       <c r="H207">
-        <v>1068.564875253704</v>
+        <v>943.9905098309872</v>
       </c>
       <c r="I207">
         <v>741.5039391235581</v>
@@ -11544,13 +11544,13 @@
         <v>947.8540093860879</v>
       </c>
       <c r="L207">
-        <v>0.6939250543374887</v>
+        <v>0.7854993576750232</v>
       </c>
       <c r="M207">
-        <v>0.9450425015858303</v>
+        <v>0.9045241943604257</v>
       </c>
       <c r="N207">
-        <v>1.237229489423075</v>
+        <v>1.004092731351497</v>
       </c>
     </row>
     <row r="208">
@@ -11566,12 +11566,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11580,13 +11580,13 @@
         </is>
       </c>
       <c r="F208">
-        <v>1635.144562920463</v>
+        <v>1821.497179043897</v>
       </c>
       <c r="G208">
-        <v>1896.189097400932</v>
+        <v>1821.497179043897</v>
       </c>
       <c r="H208">
-        <v>2191.869593954618</v>
+        <v>1821.497179043897</v>
       </c>
       <c r="I208">
         <v>2134.132450420766</v>
@@ -11598,13 +11598,13 @@
         <v>2926.74126686664</v>
       </c>
       <c r="L208">
-        <v>0.9736584951526784</v>
+        <v>1.171636429072578</v>
       </c>
       <c r="M208">
-        <v>1.406536657860692</v>
+        <v>1.464212795064622</v>
       </c>
       <c r="N208">
-        <v>1.789897562108705</v>
+        <v>1.606777820212099</v>
       </c>
     </row>
     <row r="209">
@@ -11620,12 +11620,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11634,13 +11634,13 @@
         </is>
       </c>
       <c r="F209">
-        <v>54.64768071096209</v>
+        <v>180.3542979279244</v>
       </c>
       <c r="G209">
-        <v>77.97153306938247</v>
+        <v>180.3542979279244</v>
       </c>
       <c r="H209">
-        <v>102.5076774178069</v>
+        <v>180.3542979279244</v>
       </c>
       <c r="I209">
         <v>67.06126629136298</v>
@@ -11652,13 +11652,13 @@
         <v>90.55653820005834</v>
       </c>
       <c r="L209">
-        <v>0.6542072553066507</v>
+        <v>0.371830708010978</v>
       </c>
       <c r="M209">
-        <v>1.105926543725502</v>
+        <v>0.4781188420076439</v>
       </c>
       <c r="N209">
-        <v>1.65709755696719</v>
+        <v>0.5021035774608918</v>
       </c>
     </row>
     <row r="210">
@@ -11674,12 +11674,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11688,13 +11688,13 @@
         </is>
       </c>
       <c r="F210">
-        <v>204.0859223312115</v>
+        <v>356.7356957531707</v>
       </c>
       <c r="G210">
-        <v>253.2361751656952</v>
+        <v>356.7356957531707</v>
       </c>
       <c r="H210">
-        <v>284.4787750091829</v>
+        <v>356.7356957531707</v>
       </c>
       <c r="I210">
         <v>232.891646959818</v>
@@ -11706,13 +11706,13 @@
         <v>348.7957144384469</v>
       </c>
       <c r="L210">
-        <v>0.8186608893837523</v>
+        <v>0.6528408839718643</v>
       </c>
       <c r="M210">
-        <v>1.109957300873374</v>
+        <v>0.787926032680776</v>
       </c>
       <c r="N210">
-        <v>1.709063077228745</v>
+        <v>0.9777426778165269</v>
       </c>
     </row>
     <row r="211">
@@ -11728,12 +11728,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11742,13 +11742,13 @@
         </is>
       </c>
       <c r="F211">
-        <v>457.1140505251275</v>
+        <v>667.5633476432945</v>
       </c>
       <c r="G211">
-        <v>587.7117968826404</v>
+        <v>667.5633476432945</v>
       </c>
       <c r="H211">
-        <v>700.792689494603</v>
+        <v>667.5633476432945</v>
       </c>
       <c r="I211">
         <v>499.9909230798828</v>
@@ -11760,13 +11760,13 @@
         <v>783.7998158729773</v>
       </c>
       <c r="L211">
-        <v>0.7134648100288629</v>
+        <v>0.748978991799064</v>
       </c>
       <c r="M211">
-        <v>1.160257495919382</v>
+        <v>1.02147162539801</v>
       </c>
       <c r="N211">
-        <v>1.714670146263404</v>
+        <v>1.17412050652576</v>
       </c>
     </row>
     <row r="212">
@@ -11782,12 +11782,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11796,13 +11796,13 @@
         </is>
       </c>
       <c r="F212">
-        <v>49.07825420524543</v>
+        <v>54.34714271670836</v>
       </c>
       <c r="G212">
-        <v>57.41137489678762</v>
+        <v>54.34714271670836</v>
       </c>
       <c r="H212">
-        <v>69.93329523081442</v>
+        <v>54.34714271670836</v>
       </c>
       <c r="I212">
         <v>29.07538456755402</v>
@@ -11814,13 +11814,13 @@
         <v>57.26652498448171</v>
       </c>
       <c r="L212">
-        <v>0.4157588237704357</v>
+        <v>0.5349938030617966</v>
       </c>
       <c r="M212">
-        <v>0.6870242115155049</v>
+        <v>0.7257604098174658</v>
       </c>
       <c r="N212">
-        <v>1.166841117554689</v>
+        <v>1.05371730916915</v>
       </c>
     </row>
     <row r="213">
@@ -11836,12 +11836,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11850,13 +11850,13 @@
         </is>
       </c>
       <c r="F213">
-        <v>35.05574960760885</v>
+        <v>10.49838454231911</v>
       </c>
       <c r="G213">
-        <v>40.87574306543338</v>
+        <v>10.49838454231911</v>
       </c>
       <c r="H213">
-        <v>44.9053991606334</v>
+        <v>10.49838454231911</v>
       </c>
       <c r="I213">
         <v>4.471269149416735</v>
@@ -11868,13 +11868,13 @@
         <v>18.47358585689362</v>
       </c>
       <c r="L213">
-        <v>0.09957085858255774</v>
+        <v>0.4259006832330249</v>
       </c>
       <c r="M213">
-        <v>0.2122576314155089</v>
+        <v>0.826430806610673</v>
       </c>
       <c r="N213">
-        <v>0.5269773450482408</v>
+        <v>1.759659858374056</v>
       </c>
     </row>
     <row r="214">
@@ -11890,12 +11890,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11904,13 +11904,13 @@
         </is>
       </c>
       <c r="F214">
-        <v>119.7204093529225</v>
+        <v>219.8997055036618</v>
       </c>
       <c r="G214">
-        <v>132.103542923859</v>
+        <v>219.8997055036618</v>
       </c>
       <c r="H214">
-        <v>148.5464112035422</v>
+        <v>219.8997055036618</v>
       </c>
       <c r="I214">
         <v>100.4609539066659</v>
@@ -11922,13 +11922,13 @@
         <v>201.85053009163</v>
       </c>
       <c r="L214">
-        <v>0.6762933758730236</v>
+        <v>0.456848969745405</v>
       </c>
       <c r="M214">
-        <v>1.049949344262746</v>
+        <v>0.6307513143321672</v>
       </c>
       <c r="N214">
-        <v>1.686016036719329</v>
+        <v>0.9179208750157638</v>
       </c>
     </row>
     <row r="215">
@@ -11944,12 +11944,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11958,13 +11958,13 @@
         </is>
       </c>
       <c r="F215">
-        <v>171.4636643425667</v>
+        <v>273.0857745549789</v>
       </c>
       <c r="G215">
-        <v>224.9860802846153</v>
+        <v>273.0857745549789</v>
       </c>
       <c r="H215">
-        <v>271.0709764115982</v>
+        <v>273.0857745549789</v>
       </c>
       <c r="I215">
         <v>148.1695837131677</v>
@@ -11976,13 +11976,13 @@
         <v>283.3540833555464</v>
       </c>
       <c r="L215">
-        <v>0.5466080717110222</v>
+        <v>0.5425752548063887</v>
       </c>
       <c r="M215">
-        <v>1.03167498967652</v>
+        <v>0.849961930214938</v>
       </c>
       <c r="N215">
-        <v>1.652560526114933</v>
+        <v>1.037601038784612</v>
       </c>
     </row>
     <row r="216">
@@ -11998,12 +11998,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -12012,13 +12012,13 @@
         </is>
       </c>
       <c r="F216">
-        <v>239.5355822554056</v>
+        <v>352.1948376029093</v>
       </c>
       <c r="G216">
-        <v>290.2224904551869</v>
+        <v>352.1948376029093</v>
       </c>
       <c r="H216">
-        <v>327.1075711934434</v>
+        <v>352.1948376029093</v>
       </c>
       <c r="I216">
         <v>276.4837971676466</v>
@@ -12030,13 +12030,13 @@
         <v>547.1374249429063</v>
       </c>
       <c r="L216">
-        <v>0.8452381464571509</v>
+        <v>0.7850308058159986</v>
       </c>
       <c r="M216">
-        <v>1.474396061578612</v>
+        <v>1.214960729751279</v>
       </c>
       <c r="N216">
-        <v>2.284159287698306</v>
+        <v>1.553507793205617</v>
       </c>
     </row>
     <row r="217">
@@ -12052,12 +12052,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Lagis k.</t>
+          <t>L. conchilega</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Lagis_koreni</t>
+          <t>Lanice_conchilega</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -12066,13 +12066,13 @@
         </is>
       </c>
       <c r="F217">
-        <v>7511.344884259203</v>
+        <v>10907.8948168556</v>
       </c>
       <c r="G217">
-        <v>8817.040000000001</v>
+        <v>10907.89</v>
       </c>
       <c r="H217">
-        <v>10162.89699983114</v>
+        <v>10907.8948168556</v>
       </c>
       <c r="I217">
         <v>8654.842999044244</v>
@@ -12084,13 +12084,13 @@
         <v>12596.2624355253</v>
       </c>
       <c r="L217">
-        <v>0.8516117991934826</v>
+        <v>0.7934476032598156</v>
       </c>
       <c r="M217">
-        <v>1.30370169580721</v>
+        <v>1.053805089710292</v>
       </c>
       <c r="N217">
-        <v>1.676964994900189</v>
+        <v>1.154784002506214</v>
       </c>
     </row>
     <row r="218">
@@ -12106,12 +12106,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -12120,13 +12120,13 @@
         </is>
       </c>
       <c r="F218">
-        <v>1006.426659756361</v>
+        <v>691.3754033624226</v>
       </c>
       <c r="G218">
-        <v>1006.426659756361</v>
+        <v>957.2619633053791</v>
       </c>
       <c r="H218">
-        <v>1006.426659756361</v>
+        <v>1223.148523248336</v>
       </c>
       <c r="I218">
         <v>772.5992435017812</v>
@@ -12138,13 +12138,13 @@
         <v>1190.784036563229</v>
       </c>
       <c r="L218">
-        <v>0.7676657171311562</v>
+        <v>0.6316479387556113</v>
       </c>
       <c r="M218">
-        <v>0.9628008240122673</v>
+        <v>1.012249994740696</v>
       </c>
       <c r="N218">
-        <v>1.183180140370583</v>
+        <v>1.722340758395499</v>
       </c>
     </row>
     <row r="219">
@@ -12160,12 +12160,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -12174,13 +12174,13 @@
         </is>
       </c>
       <c r="F219">
-        <v>275.6600493010215</v>
+        <v>155.4192860370968</v>
       </c>
       <c r="G219">
-        <v>275.6600493010215</v>
+        <v>200.7123485715279</v>
       </c>
       <c r="H219">
-        <v>275.6600493010215</v>
+        <v>246.0054111059589</v>
       </c>
       <c r="I219">
         <v>124.1490551585352</v>
@@ -12192,13 +12192,13 @@
         <v>208.6931016505882</v>
       </c>
       <c r="L219">
-        <v>0.4503701405892304</v>
+        <v>0.5046598552462817</v>
       </c>
       <c r="M219">
-        <v>0.6069860622671538</v>
+        <v>0.8336398285428266</v>
       </c>
       <c r="N219">
-        <v>0.7570669096946102</v>
+        <v>1.342774805957966</v>
       </c>
     </row>
     <row r="220">
@@ -12214,12 +12214,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -12228,13 +12228,13 @@
         </is>
       </c>
       <c r="F220">
-        <v>1049.724226723234</v>
+        <v>1068.340520445342</v>
       </c>
       <c r="G220">
-        <v>1049.724226723234</v>
+        <v>1502.252490213437</v>
       </c>
       <c r="H220">
-        <v>1049.724226723234</v>
+        <v>1936.164459981532</v>
       </c>
       <c r="I220">
         <v>677.5498310319136</v>
@@ -12246,13 +12246,13 @@
         <v>1005.336428291718</v>
       </c>
       <c r="L220">
-        <v>0.6454550764698639</v>
+        <v>0.3499443590852692</v>
       </c>
       <c r="M220">
-        <v>0.7866965941126535</v>
+        <v>0.5497174937638991</v>
       </c>
       <c r="N220">
-        <v>0.9577148004194637</v>
+        <v>0.9410262075172808</v>
       </c>
     </row>
     <row r="221">
@@ -12268,12 +12268,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -12282,13 +12282,13 @@
         </is>
       </c>
       <c r="F221">
-        <v>1030.673147302482</v>
+        <v>752.6928403382134</v>
       </c>
       <c r="G221">
-        <v>1030.673147302482</v>
+        <v>1002.190007652472</v>
       </c>
       <c r="H221">
-        <v>1030.673147302482</v>
+        <v>1251.68717496673</v>
       </c>
       <c r="I221">
         <v>730.4094819018429</v>
@@ -12300,13 +12300,13 @@
         <v>1117.260656539696</v>
       </c>
       <c r="L221">
-        <v>0.7086722728864134</v>
+        <v>0.5835399583136717</v>
       </c>
       <c r="M221">
-        <v>0.9301084389408005</v>
+        <v>0.9565429557028061</v>
       </c>
       <c r="N221">
-        <v>1.084010638546114</v>
+        <v>1.484351380355456</v>
       </c>
     </row>
     <row r="222">
@@ -12322,12 +12322,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -12336,13 +12336,13 @@
         </is>
       </c>
       <c r="F222">
-        <v>272.4744578391707</v>
+        <v>266.9088705496164</v>
       </c>
       <c r="G222">
-        <v>272.4744578391707</v>
+        <v>367.6953468300248</v>
       </c>
       <c r="H222">
-        <v>272.4744578391707</v>
+        <v>468.4818231104332</v>
       </c>
       <c r="I222">
         <v>202.8582750800992</v>
@@ -12354,13 +12354,13 @@
         <v>287.6133459859888</v>
       </c>
       <c r="L222">
-        <v>0.7445038213447414</v>
+        <v>0.4330120509975054</v>
       </c>
       <c r="M222">
-        <v>0.9386659650659679</v>
+        <v>0.6955826396183994</v>
       </c>
       <c r="N222">
-        <v>1.05556076069249</v>
+        <v>1.077571327598584</v>
       </c>
     </row>
     <row r="223">
@@ -12376,12 +12376,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -12390,13 +12390,13 @@
         </is>
       </c>
       <c r="F223">
-        <v>304.7599909230174</v>
+        <v>269.7957982390456</v>
       </c>
       <c r="G223">
-        <v>304.7599909230174</v>
+        <v>389.4024584574169</v>
       </c>
       <c r="H223">
-        <v>304.7599909230174</v>
+        <v>509.009118675788</v>
       </c>
       <c r="I223">
         <v>164.3218993535436</v>
@@ -12408,13 +12408,13 @@
         <v>233.7952059214437</v>
       </c>
       <c r="L223">
-        <v>0.5391846182166721</v>
+        <v>0.3228270247516096</v>
       </c>
       <c r="M223">
-        <v>0.658714136401773</v>
+        <v>0.5155327345028065</v>
       </c>
       <c r="N223">
-        <v>0.7671453369366338</v>
+        <v>0.866563554537997</v>
       </c>
     </row>
     <row r="224">
@@ -12430,12 +12430,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -12444,13 +12444,13 @@
         </is>
       </c>
       <c r="F224">
-        <v>1251.524726893696</v>
+        <v>1600.225902572477</v>
       </c>
       <c r="G224">
-        <v>1251.524726893696</v>
+        <v>2252.775853326325</v>
       </c>
       <c r="H224">
-        <v>1251.524726893696</v>
+        <v>2905.325804080174</v>
       </c>
       <c r="I224">
         <v>1158.085593833882</v>
@@ -12462,13 +12462,13 @@
         <v>1796.050300226435</v>
       </c>
       <c r="L224">
-        <v>0.9253397627294736</v>
+        <v>0.3986078229875262</v>
       </c>
       <c r="M224">
-        <v>1.177735796610483</v>
+        <v>0.6542885609455944</v>
       </c>
       <c r="N224">
-        <v>1.43508974423882</v>
+        <v>1.122372970803157</v>
       </c>
     </row>
     <row r="225">
@@ -12484,12 +12484,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12498,13 +12498,13 @@
         </is>
       </c>
       <c r="F225">
-        <v>943.9905098309872</v>
+        <v>1204.013193220598</v>
       </c>
       <c r="G225">
-        <v>943.9905098309872</v>
+        <v>1686.21187681925</v>
       </c>
       <c r="H225">
-        <v>943.9905098309872</v>
+        <v>2168.410560417902</v>
       </c>
       <c r="I225">
         <v>741.5039391235581</v>
@@ -12516,13 +12516,13 @@
         <v>947.8540093860879</v>
       </c>
       <c r="L225">
-        <v>0.7854993576750232</v>
+        <v>0.3419573546905497</v>
       </c>
       <c r="M225">
-        <v>0.9045241943604257</v>
+        <v>0.5063789830489311</v>
       </c>
       <c r="N225">
-        <v>1.004092731351497</v>
+        <v>0.7872455341213386</v>
       </c>
     </row>
     <row r="226">
@@ -12538,12 +12538,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -12552,13 +12552,13 @@
         </is>
       </c>
       <c r="F226">
-        <v>1821.497179043897</v>
+        <v>3033.800801495967</v>
       </c>
       <c r="G226">
-        <v>1821.497179043897</v>
+        <v>4355.203786199069</v>
       </c>
       <c r="H226">
-        <v>1821.497179043897</v>
+        <v>5676.606770902172</v>
       </c>
       <c r="I226">
         <v>2134.132450420766</v>
@@ -12570,13 +12570,13 @@
         <v>2926.74126686664</v>
       </c>
       <c r="L226">
-        <v>1.171636429072578</v>
+        <v>0.3759521377031357</v>
       </c>
       <c r="M226">
-        <v>1.464212795064622</v>
+        <v>0.6123845419545383</v>
       </c>
       <c r="N226">
-        <v>1.606777820212099</v>
+        <v>0.964711086312412</v>
       </c>
     </row>
     <row r="227">
@@ -12592,12 +12592,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -12606,13 +12606,13 @@
         </is>
       </c>
       <c r="F227">
-        <v>180.3542979279244</v>
+        <v>103.8773132558323</v>
       </c>
       <c r="G227">
-        <v>180.3542979279244</v>
+        <v>137.211742353675</v>
       </c>
       <c r="H227">
-        <v>180.3542979279244</v>
+        <v>170.5461714515176</v>
       </c>
       <c r="I227">
         <v>67.06126629136298</v>
@@ -12624,13 +12624,13 @@
         <v>90.55653820005834</v>
       </c>
       <c r="L227">
-        <v>0.371830708010978</v>
+        <v>0.3932147272530652</v>
       </c>
       <c r="M227">
-        <v>0.4781188420076439</v>
+        <v>0.6284504999151866</v>
       </c>
       <c r="N227">
-        <v>0.5021035774608918</v>
+        <v>0.8717643473992521</v>
       </c>
     </row>
     <row r="228">
@@ -12646,12 +12646,12 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -12660,13 +12660,13 @@
         </is>
       </c>
       <c r="F228">
-        <v>356.7356957531707</v>
+        <v>328.8400551896771</v>
       </c>
       <c r="G228">
-        <v>356.7356957531707</v>
+        <v>441.4423417561713</v>
       </c>
       <c r="H228">
-        <v>356.7356957531707</v>
+        <v>554.0446283226656</v>
       </c>
       <c r="I228">
         <v>232.891646959818</v>
@@ -12678,13 +12678,13 @@
         <v>348.7957144384469</v>
       </c>
       <c r="L228">
-        <v>0.6528408839718643</v>
+        <v>0.4203481724295071</v>
       </c>
       <c r="M228">
-        <v>0.787926032680776</v>
+        <v>0.6367339851274759</v>
       </c>
       <c r="N228">
-        <v>0.9777426778165269</v>
+        <v>1.060685001519232</v>
       </c>
     </row>
     <row r="229">
@@ -12700,12 +12700,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -12714,13 +12714,13 @@
         </is>
       </c>
       <c r="F229">
-        <v>667.5633476432945</v>
+        <v>840.6842130249261</v>
       </c>
       <c r="G229">
-        <v>667.5633476432945</v>
+        <v>1178.159060312996</v>
       </c>
       <c r="H229">
-        <v>667.5633476432945</v>
+        <v>1515.633907601065</v>
       </c>
       <c r="I229">
         <v>499.9909230798828</v>
@@ -12732,13 +12732,13 @@
         <v>783.7998158729773</v>
       </c>
       <c r="L229">
-        <v>0.748978991799064</v>
+        <v>0.3298889795038071</v>
       </c>
       <c r="M229">
-        <v>1.02147162539801</v>
+        <v>0.5787817967398872</v>
       </c>
       <c r="N229">
-        <v>1.17412050652576</v>
+        <v>0.9323355948992204</v>
       </c>
     </row>
     <row r="230">
@@ -12754,12 +12754,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -12768,13 +12768,13 @@
         </is>
       </c>
       <c r="F230">
-        <v>54.34714271670836</v>
+        <v>76.40217953287853</v>
       </c>
       <c r="G230">
-        <v>54.34714271670836</v>
+        <v>84.91606630315661</v>
       </c>
       <c r="H230">
-        <v>54.34714271670836</v>
+        <v>93.42995307343469</v>
       </c>
       <c r="I230">
         <v>29.07538456755402</v>
@@ -12786,13 +12786,13 @@
         <v>57.26652498448171</v>
       </c>
       <c r="L230">
-        <v>0.5349938030617966</v>
+        <v>0.311199819876835</v>
       </c>
       <c r="M230">
-        <v>0.7257604098174658</v>
+        <v>0.4644940149449709</v>
       </c>
       <c r="N230">
-        <v>1.05371730916915</v>
+        <v>0.7495404625183227</v>
       </c>
     </row>
     <row r="231">
@@ -12808,12 +12808,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -12822,13 +12822,13 @@
         </is>
       </c>
       <c r="F231">
-        <v>10.49838454231911</v>
+        <v>44.13668971399667</v>
       </c>
       <c r="G231">
-        <v>10.49838454231911</v>
+        <v>49.81371926655159</v>
       </c>
       <c r="H231">
-        <v>10.49838454231911</v>
+        <v>55.4907488191065</v>
       </c>
       <c r="I231">
         <v>4.471269149416735</v>
@@ -12840,13 +12840,13 @@
         <v>18.47358585689362</v>
       </c>
       <c r="L231">
-        <v>0.4259006832330249</v>
+        <v>0.08057683928527549</v>
       </c>
       <c r="M231">
-        <v>0.826430806610673</v>
+        <v>0.1741726683565184</v>
       </c>
       <c r="N231">
-        <v>1.759659858374056</v>
+        <v>0.4185539508422911</v>
       </c>
     </row>
     <row r="232">
@@ -12862,12 +12862,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -12876,13 +12876,13 @@
         </is>
       </c>
       <c r="F232">
-        <v>219.8997055036618</v>
+        <v>220.2787989695474</v>
       </c>
       <c r="G232">
-        <v>219.8997055036618</v>
+        <v>292.8193917201451</v>
       </c>
       <c r="H232">
-        <v>219.8997055036618</v>
+        <v>365.3599844707428</v>
       </c>
       <c r="I232">
         <v>100.4609539066659</v>
@@ -12894,13 +12894,13 @@
         <v>201.85053009163</v>
       </c>
       <c r="L232">
-        <v>0.456848969745405</v>
+        <v>0.2749643041839754</v>
       </c>
       <c r="M232">
-        <v>0.6307513143321672</v>
+        <v>0.473677741944947</v>
       </c>
       <c r="N232">
-        <v>0.9179208750157638</v>
+        <v>0.9163411596389495</v>
       </c>
     </row>
     <row r="233">
@@ -12916,12 +12916,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -12930,13 +12930,13 @@
         </is>
       </c>
       <c r="F233">
-        <v>273.0857745549789</v>
+        <v>230.3484457160349</v>
       </c>
       <c r="G233">
-        <v>273.0857745549789</v>
+        <v>301.8118877317137</v>
       </c>
       <c r="H233">
-        <v>273.0857745549789</v>
+        <v>373.2753297473924</v>
       </c>
       <c r="I233">
         <v>148.1695837131677</v>
@@ -12948,13 +12948,13 @@
         <v>283.3540833555464</v>
       </c>
       <c r="L233">
-        <v>0.5425752548063887</v>
+        <v>0.396944485491283</v>
       </c>
       <c r="M233">
-        <v>0.849961930214938</v>
+        <v>0.7690635176746932</v>
       </c>
       <c r="N233">
-        <v>1.037601038784612</v>
+        <v>1.230110680689614</v>
       </c>
     </row>
     <row r="234">
@@ -12970,12 +12970,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -12984,13 +12984,13 @@
         </is>
       </c>
       <c r="F234">
-        <v>352.1948376029093</v>
+        <v>414.1807734886748</v>
       </c>
       <c r="G234">
-        <v>352.1948376029093</v>
+        <v>550.5356806270255</v>
       </c>
       <c r="H234">
-        <v>352.1948376029093</v>
+        <v>686.8905877653762</v>
       </c>
       <c r="I234">
         <v>276.4837971676466</v>
@@ -13002,13 +13002,13 @@
         <v>547.1374249429063</v>
       </c>
       <c r="L234">
-        <v>0.7850308058159986</v>
+        <v>0.4025150469263473</v>
       </c>
       <c r="M234">
-        <v>1.214960729751279</v>
+        <v>0.7772482546840732</v>
       </c>
       <c r="N234">
-        <v>1.553507793205617</v>
+        <v>1.321011162189707</v>
       </c>
     </row>
     <row r="235">
@@ -13024,12 +13024,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Lanice c.</t>
+          <t>H. diversicolor</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Lanice_conchilega</t>
+          <t>Hediste_diversicolor</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -13038,13 +13038,13 @@
         </is>
       </c>
       <c r="F235">
-        <v>10907.8948168556</v>
+        <v>12093.62915589518</v>
       </c>
       <c r="G235">
-        <v>10907.89</v>
+        <v>16844.06</v>
       </c>
       <c r="H235">
-        <v>10907.8948168556</v>
+        <v>21594.48876093411</v>
       </c>
       <c r="I235">
         <v>8654.842999044244</v>
@@ -13056,13 +13056,13 @@
         <v>12596.2624355253</v>
       </c>
       <c r="L235">
-        <v>0.7934476032598156</v>
+        <v>0.4007894372892699</v>
       </c>
       <c r="M235">
-        <v>1.053805089710292</v>
+        <v>0.6824239524200223</v>
       </c>
       <c r="N235">
-        <v>1.154784002506214</v>
+        <v>1.041561823432059</v>
       </c>
     </row>
     <row r="236">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -14158,7 +14158,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -14374,7 +14374,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -14482,7 +14482,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -14644,7 +14644,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -14860,7 +14860,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -14914,7 +14914,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Owenia f.</t>
+          <t>O. fusiformis</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
